--- a/data/Perp/AquaticKinData_perp.xlsx
+++ b/data/Perp/AquaticKinData_perp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Dropbox\Research\Alaska SeaLife Center 2018-2020\Paper 2\Perpendicual Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\Lapsansky_Zatz_Tobalske_eLife_2020\data\Perp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312EE8FD-8846-44E8-97B0-3CDB77924148}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FF0DA-83B6-45EC-8BF9-47FC37CB42BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7333A5B6-CD84-4D52-A295-33ECA1939BBB}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7333A5B6-CD84-4D52-A295-33ECA1939BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="rawData" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rawData!$O$1:$O$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">rawData!$O$1:$O$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="90">
   <si>
     <t>Species</t>
   </si>
@@ -744,11 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAFD627-FA12-4274-92CA-274A2CD3168D}">
-  <dimension ref="A1:O126"/>
+  <dimension ref="A1:O123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -817,9 +817,7 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
@@ -830,40 +828,40 @@
         <v>32</v>
       </c>
       <c r="E2" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="6">
-        <v>5.0050049999999999E-2</v>
+        <v>0.36703370000000002</v>
       </c>
       <c r="H2" s="6">
-        <v>0.36703370000000002</v>
+        <v>0.63396730000000001</v>
       </c>
       <c r="I2" s="6">
-        <v>5.10509675523077</v>
+        <v>6.9061945485454501</v>
       </c>
       <c r="J2" s="6">
-        <f>AVERAGE(I2:I6)</f>
-        <v>6.2742854372390662</v>
+        <f>AVERAGE(I2:I5)</f>
+        <v>6.5665826077411404</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K24" si="0">1/(H2-G2)</f>
-        <v>3.15473684526</v>
+        <f>1/(H2-G2)</f>
+        <v>3.7462500037462503</v>
       </c>
       <c r="L2" s="6">
-        <f>AVERAGE(K2:K6)</f>
-        <v>3.2053940849557221</v>
+        <f>AVERAGE(K2:K5)</f>
+        <v>3.2180583948796535</v>
       </c>
       <c r="M2" s="6">
-        <v>0.38260728500000002</v>
+        <v>0.285975655</v>
       </c>
       <c r="N2" s="6">
-        <f>AVERAGE(M2:M6)</f>
-        <v>0.32492648339999997</v>
+        <f>AVERAGE(M2:M5)</f>
+        <v>0.31050628299999999</v>
       </c>
       <c r="O2" s="6">
-        <f>_xlfn.STDEV.S(M2:M6)</f>
-        <v>5.4416712224480301E-2</v>
+        <f>_xlfn.STDEV.S(M2:M5)</f>
+        <v>5.061577713771441E-2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
@@ -874,22 +872,22 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6">
-        <v>0.36703370000000002</v>
+        <v>0.63396730000000001</v>
       </c>
       <c r="H3" s="6">
-        <v>0.63396730000000001</v>
+        <v>0.89255922499999996</v>
       </c>
       <c r="I3" s="6">
-        <v>6.9061945485454501</v>
+        <v>6.5266693961562501</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6">
-        <f t="shared" si="0"/>
-        <v>3.7462500037462503</v>
+        <f>1/(H3-G3)</f>
+        <v>3.8670967780606458</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6">
-        <v>0.285975655</v>
+        <v>0.25485370499999999</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -902,22 +900,22 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="6">
-        <v>0.63396730000000001</v>
+        <v>0.88421755000000002</v>
       </c>
       <c r="H4" s="6">
-        <v>0.89255922499999996</v>
+        <v>1.21788455</v>
       </c>
       <c r="I4" s="6">
-        <v>6.5266693961562501</v>
+        <v>6.4544460757073097</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
-        <v>3.8670967780606458</v>
+        <f>1/(H4-G4)</f>
+        <v>2.9970000029970008</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6">
-        <v>0.25485370499999999</v>
+        <v>0.370247775</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -930,103 +928,103 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6">
-        <v>0.88421755000000002</v>
+        <v>1.21788455</v>
       </c>
       <c r="H5" s="6">
-        <v>1.21788455</v>
+        <v>1.6599933250000001</v>
       </c>
       <c r="I5" s="6">
-        <v>6.4544460757073097</v>
+        <v>6.3790204105555501</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9970000029970008</v>
+        <f>1/(H5-G5)</f>
+        <v>2.2618867947147163</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6">
-        <v>0.370247775</v>
+        <v>0.33094799699999999</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6">
-        <v>1.21788455</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1.6599933250000001</v>
-      </c>
-      <c r="I6" s="6">
-        <v>6.3790204105555501</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2618867947147163</v>
-      </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6">
-        <v>0.33094799699999999</v>
-      </c>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <v>4.1708374999999999E-2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.42542542500000002</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4.6523687835319096</v>
+      </c>
+      <c r="J6" s="5">
+        <f>AVERAGE(I6:I9)</f>
+        <v>5.3712083224934517</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:K23" si="0">1/(H6-G6)</f>
+        <v>2.606086959127826</v>
+      </c>
+      <c r="L6" s="5">
+        <f>AVERAGE(K6:K9)</f>
+        <v>2.6074393241554583</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0.49455423900000001</v>
+      </c>
+      <c r="N6" s="5">
+        <f>AVERAGE(M6:M9)</f>
+        <v>0.40023633224999999</v>
+      </c>
+      <c r="O6" s="5">
+        <f>_xlfn.STDEV.S(M6:M9)</f>
+        <v>6.7751026970201772E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="5">
-        <v>4.1708374999999999E-2</v>
+        <v>0.42542542500000002</v>
       </c>
       <c r="H7" s="5">
-        <v>0.42542542500000002</v>
+        <v>0.77577577499999895</v>
       </c>
       <c r="I7" s="5">
-        <v>4.6523687835319096</v>
-      </c>
-      <c r="J7" s="5">
-        <f>AVERAGE(I7:I10)</f>
-        <v>5.3712083224934517</v>
-      </c>
+        <v>5.9402476250465099</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="5">
         <f t="shared" si="0"/>
-        <v>2.606086959127826</v>
-      </c>
-      <c r="L7" s="5">
-        <f>AVERAGE(K7:K10)</f>
-        <v>2.6074393241554583</v>
-      </c>
+        <v>2.8542857171400087</v>
+      </c>
+      <c r="L7" s="5"/>
       <c r="M7" s="5">
-        <v>0.49455423900000001</v>
-      </c>
-      <c r="N7" s="5">
-        <f>AVERAGE(M7:M10)</f>
-        <v>0.40023633224999999</v>
-      </c>
-      <c r="O7" s="5">
-        <f>_xlfn.STDEV.S(M7:M10)</f>
-        <v>6.7751026970201772E-2</v>
-      </c>
+        <v>0.37189180300000002</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
@@ -1036,22 +1034,22 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5">
-        <v>0.42542542500000002</v>
+        <v>0.76743410000000001</v>
       </c>
       <c r="H8" s="5">
-        <v>0.77577577499999895</v>
+        <v>1.142809475</v>
       </c>
       <c r="I8" s="5">
-        <v>5.9402476250465099</v>
+        <v>5.1327928325652099</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5">
         <f t="shared" si="0"/>
-        <v>2.8542857171400087</v>
+        <v>2.6640000026640003</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5">
-        <v>0.37189180300000002</v>
+        <v>0.33646749100000001</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1064,103 +1062,103 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="5">
-        <v>0.76743410000000001</v>
+        <v>1.142809475</v>
       </c>
       <c r="H9" s="5">
-        <v>1.142809475</v>
+        <v>1.576576575</v>
       </c>
       <c r="I9" s="5">
-        <v>5.1327928325652099</v>
+        <v>5.75942404883018</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5">
         <f t="shared" si="0"/>
-        <v>2.6640000026640003</v>
+        <v>2.3053846176899997</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
-        <v>0.33646749100000001</v>
+        <v>0.39803179599999999</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5">
-        <v>1.142809475</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1.576576575</v>
-      </c>
-      <c r="I10" s="5">
-        <v>5.75942404883018</v>
-      </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6">
+        <v>0.125125125</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.55889222500000002</v>
+      </c>
+      <c r="I10" s="6">
+        <v>3.5247085201320698</v>
+      </c>
+      <c r="J10" s="6">
+        <f>AVERAGE(I10:I12)</f>
+        <v>3.7856118762088768</v>
+      </c>
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>2.3053846176899997</v>
       </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>0.39803179599999999</v>
-      </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
+      <c r="L10" s="6">
+        <f>AVERAGE(K10:K12)</f>
+        <v>2.1265490981917741</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.33406903700000001</v>
+      </c>
+      <c r="N10" s="6">
+        <f>AVERAGE(M10:M12)</f>
+        <v>0.34427044099999998</v>
+      </c>
+      <c r="O10" s="6">
+        <f>_xlfn.STDEV.S(M10:M12)</f>
+        <v>1.1487943039024331E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6">
-        <v>0.125125125</v>
+        <v>0.55889222500000002</v>
       </c>
       <c r="H11" s="6">
-        <v>0.55889222500000002</v>
+        <v>1.026026025</v>
       </c>
       <c r="I11" s="6">
-        <v>3.5247085201320698</v>
-      </c>
-      <c r="J11" s="6">
-        <f>AVERAGE(I11:I13)</f>
-        <v>3.7856118762088768</v>
-      </c>
+        <v>3.7474870508596401</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="6">
         <f t="shared" si="0"/>
-        <v>2.3053846176899997</v>
-      </c>
-      <c r="L11" s="6">
-        <f>AVERAGE(K11:K13)</f>
-        <v>2.1265490981917741</v>
-      </c>
+        <v>2.1407142878550003</v>
+      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6">
-        <v>0.33406903700000001</v>
-      </c>
-      <c r="N11" s="6">
-        <f>AVERAGE(M11:M13)</f>
-        <v>0.34427044099999998</v>
-      </c>
-      <c r="O11" s="6">
-        <f>_xlfn.STDEV.S(M11:M13)</f>
-        <v>1.1487943039024331E-2</v>
-      </c>
+        <v>0.35671425899999998</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
@@ -1170,259 +1168,259 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6">
-        <v>0.55889222500000002</v>
+        <v>1.0176843499999999</v>
       </c>
       <c r="H12" s="6">
-        <v>1.026026025</v>
+        <v>1.5348682</v>
       </c>
       <c r="I12" s="6">
-        <v>3.7474870508596401</v>
+        <v>4.0846400576349202</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6">
         <f t="shared" si="0"/>
-        <v>2.1407142878550003</v>
+        <v>1.9335483890303222</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6">
-        <v>0.35671425899999998</v>
+        <v>0.34202802700000001</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6">
-        <v>1.0176843499999999</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1.5348682</v>
-      </c>
-      <c r="I13" s="6">
-        <v>4.0846400576349202</v>
-      </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.45045045</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3.59319685125454</v>
+      </c>
+      <c r="J13" s="5">
+        <f>AVERAGE(I13:I14)</f>
+        <v>3.6056597652272702</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>1.9335483890303222</v>
-      </c>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6">
-        <v>0.34202802700000001</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+        <v>2.2200000022199999</v>
+      </c>
+      <c r="L13" s="5">
+        <f>AVERAGE(K13:K14)</f>
+        <v>2.3332653084557142</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0.281952015</v>
+      </c>
+      <c r="N13" s="5">
+        <f>AVERAGE(M13:M14)</f>
+        <v>0.31102595799999999</v>
+      </c>
+      <c r="O13" s="5">
+        <f>_xlfn.STDEV.S(M13:M14)</f>
+        <v>4.1116764502262301E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>0.45045045</v>
       </c>
       <c r="H14" s="5">
-        <v>0.45045045</v>
+        <v>0.85919252499999998</v>
       </c>
       <c r="I14" s="5">
-        <v>3.59319685125454</v>
-      </c>
-      <c r="J14" s="5">
-        <f>AVERAGE(I14:I15)</f>
-        <v>3.6056597652272702</v>
-      </c>
+        <v>3.6181226791999999</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>2.2200000022199999</v>
-      </c>
-      <c r="L14" s="5">
-        <f>AVERAGE(K14:K15)</f>
-        <v>2.3332653084557142</v>
-      </c>
+        <v>2.4465306146914285</v>
+      </c>
+      <c r="L14" s="5"/>
       <c r="M14" s="5">
-        <v>0.281952015</v>
-      </c>
-      <c r="N14" s="5">
-        <f>AVERAGE(M14:M15)</f>
-        <v>0.31102595799999999</v>
-      </c>
-      <c r="O14" s="5">
-        <f>_xlfn.STDEV.S(M14:M15)</f>
-        <v>4.1116764502262301E-2</v>
-      </c>
+        <v>0.34009990099999998</v>
+      </c>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5">
-        <v>0.45045045</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.85919252499999998</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3.6181226791999999</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6">
+        <v>0.24190857499999999</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.71738404999999905</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3.7503588931724101</v>
+      </c>
+      <c r="J15" s="6">
+        <f>AVERAGE(I15:I16)</f>
+        <v>3.9533111236955749</v>
+      </c>
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
-        <v>2.4465306146914285</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
-        <v>0.34009990099999998</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
+        <v>2.103157896840004</v>
+      </c>
+      <c r="L15" s="6">
+        <f>AVERAGE(K15:K16)</f>
+        <v>2.003007520800002</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.30659316199999997</v>
+      </c>
+      <c r="N15" s="6">
+        <f>AVERAGE(M15:M16)</f>
+        <v>0.33664896550000001</v>
+      </c>
+      <c r="O15" s="6">
+        <f>_xlfn.STDEV.S(M15:M16)</f>
+        <v>4.2505324937720745E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6">
-        <v>0.24190857499999999</v>
+        <v>0.709042375</v>
       </c>
       <c r="H16" s="6">
-        <v>0.71738404999999905</v>
+        <v>1.2345679000000001</v>
       </c>
       <c r="I16" s="6">
-        <v>3.7503588931724101</v>
-      </c>
-      <c r="J16" s="6">
-        <f>AVERAGE(I16:I17)</f>
-        <v>3.9533111236955749</v>
-      </c>
+        <v>4.1562633542187397</v>
+      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6">
         <f t="shared" si="0"/>
-        <v>2.103157896840004</v>
-      </c>
-      <c r="L16" s="6">
-        <f>AVERAGE(K16:K17)</f>
-        <v>2.003007520800002</v>
-      </c>
+        <v>1.9028571447599998</v>
+      </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="6">
-        <v>0.30659316199999997</v>
-      </c>
-      <c r="N16" s="6">
-        <f>AVERAGE(M16:M17)</f>
-        <v>0.33664896550000001</v>
-      </c>
-      <c r="O16" s="6">
-        <f>_xlfn.STDEV.S(M16:M17)</f>
-        <v>4.2505324937720745E-2</v>
-      </c>
+        <v>0.36670476899999999</v>
+      </c>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6">
-        <v>0.709042375</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1.2345679000000001</v>
-      </c>
-      <c r="I17" s="6">
-        <v>4.1562633542187397</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5">
+        <v>0.26693359999999999</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.77577577499999895</v>
+      </c>
+      <c r="I17" s="5">
+        <v>5.6166781683386997</v>
+      </c>
+      <c r="J17" s="5">
+        <f>AVERAGE(I17:I19)</f>
+        <v>5.6900428350310799</v>
+      </c>
+      <c r="K17" s="5">
         <f t="shared" si="0"/>
-        <v>1.9028571447599998</v>
-      </c>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6">
-        <v>0.36670476899999999</v>
-      </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+        <v>1.9652459036045942</v>
+      </c>
+      <c r="L17" s="5">
+        <f>AVERAGE(K17:K19)</f>
+        <v>2.2105921735053395</v>
+      </c>
+      <c r="M17" s="5">
+        <v>0.32697794099999999</v>
+      </c>
+      <c r="N17" s="5">
+        <f>AVERAGE(M17:M19)</f>
+        <v>0.43104556933333305</v>
+      </c>
+      <c r="O17" s="5">
+        <f>_xlfn.STDEV.S(M17:M19)</f>
+        <v>9.0883726899785452E-2</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5">
-        <v>0.26693359999999999</v>
+        <v>0.77577577499999895</v>
       </c>
       <c r="H18" s="5">
-        <v>0.77577577499999895</v>
+        <v>1.226226225</v>
       </c>
       <c r="I18" s="5">
-        <v>5.6166781683386997</v>
-      </c>
-      <c r="J18" s="5">
-        <f>AVERAGE(I18:I20)</f>
-        <v>5.6900428350310799</v>
-      </c>
+        <v>5.6808950590545404</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="5">
         <f t="shared" si="0"/>
-        <v>1.9652459036045942</v>
-      </c>
-      <c r="L18" s="5">
-        <f>AVERAGE(K18:K20)</f>
-        <v>2.2105921735053395</v>
-      </c>
+        <v>2.2200000022199946</v>
+      </c>
+      <c r="L18" s="5"/>
       <c r="M18" s="5">
-        <v>0.32697794099999999</v>
-      </c>
-      <c r="N18" s="5">
-        <f>AVERAGE(M18:M20)</f>
-        <v>0.43104556933333305</v>
-      </c>
-      <c r="O18" s="5">
-        <f>_xlfn.STDEV.S(M18:M20)</f>
-        <v>9.0883726899785452E-2</v>
-      </c>
+        <v>0.47136194499999901</v>
+      </c>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
@@ -1432,103 +1430,103 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="5">
-        <v>0.77577577499999895</v>
+        <v>1.2345679000000001</v>
       </c>
       <c r="H19" s="5">
-        <v>1.226226225</v>
+        <v>1.643309975</v>
       </c>
       <c r="I19" s="5">
-        <v>5.6808950590545404</v>
+        <v>5.7725552777000004</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5">
         <f t="shared" si="0"/>
-        <v>2.2200000022199946</v>
+        <v>2.446530614691429</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5">
-        <v>0.47136194499999901</v>
+        <v>0.49479682200000003</v>
       </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5">
-        <v>1.2345679000000001</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1.643309975</v>
-      </c>
-      <c r="I20" s="5">
-        <v>5.7725552777000004</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="7">
+        <v>4</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6">
+        <v>5.0050049999999999E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.48381714999999997</v>
+      </c>
+      <c r="I20" s="6">
+        <v>3.84960388633962</v>
+      </c>
+      <c r="J20" s="6">
+        <f>AVERAGE(I20:I23)</f>
+        <v>4.330326409420695</v>
+      </c>
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
-        <v>2.446530614691429</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
-        <v>0.49479682200000003</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
+        <v>2.3053846176900001</v>
+      </c>
+      <c r="L20" s="6">
+        <f>AVERAGE(K20:K23)</f>
+        <v>2.0208923435503308</v>
+      </c>
+      <c r="M20" s="6">
+        <v>0.33012475099999999</v>
+      </c>
+      <c r="N20" s="6">
+        <f>AVERAGE(M20:M23)</f>
+        <v>0.35371427050000004</v>
+      </c>
+      <c r="O20" s="6">
+        <f>_xlfn.STDEV.S(M20:M23)</f>
+        <v>5.6623669599062079E-2</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7">
-        <v>4</v>
-      </c>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6">
-        <v>5.0050049999999999E-2</v>
+        <v>0.47547547499999998</v>
       </c>
       <c r="H21" s="6">
-        <v>0.48381714999999997</v>
+        <v>1.076076075</v>
       </c>
       <c r="I21" s="6">
-        <v>3.84960388633962</v>
-      </c>
-      <c r="J21" s="6">
-        <f>AVERAGE(I21:I24)</f>
-        <v>4.330326409420695</v>
-      </c>
+        <v>4.0159291698630097</v>
+      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="6">
         <f t="shared" si="0"/>
-        <v>2.3053846176900001</v>
-      </c>
-      <c r="L21" s="6">
-        <f>AVERAGE(K21:K24)</f>
-        <v>2.0208923435503308</v>
-      </c>
+        <v>1.665000001665</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6">
-        <v>0.33012475099999999</v>
-      </c>
-      <c r="N21" s="6">
-        <f>AVERAGE(M21:M24)</f>
-        <v>0.35371427050000004</v>
-      </c>
-      <c r="O21" s="6">
-        <f>_xlfn.STDEV.S(M21:M24)</f>
-        <v>5.6623669599062079E-2</v>
-      </c>
+        <v>0.28603969499999998</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
@@ -1538,22 +1536,22 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6">
-        <v>0.47547547499999998</v>
+        <v>1.0677344</v>
       </c>
       <c r="H22" s="6">
-        <v>1.076076075</v>
+        <v>1.526526525</v>
       </c>
       <c r="I22" s="6">
-        <v>4.0159291698630097</v>
+        <v>4.6069115476071403</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6">
         <f t="shared" si="0"/>
-        <v>1.665000001665</v>
+        <v>2.1796363658160001</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6">
-        <v>0.28603969499999998</v>
+        <v>0.386739995</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -1566,103 +1564,103 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6">
-        <v>1.0677344</v>
+        <v>1.5181848499999999</v>
       </c>
       <c r="H23" s="6">
-        <v>1.526526525</v>
+        <v>2.0353686999999998</v>
       </c>
       <c r="I23" s="6">
-        <v>4.6069115476071403</v>
+        <v>4.8488610338730096</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6">
         <f t="shared" si="0"/>
-        <v>2.1796363658160001</v>
+        <v>1.9335483890303229</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6">
-        <v>0.386739995</v>
+        <v>0.41195264100000001</v>
       </c>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="6">
-        <v>1.5181848499999999</v>
-      </c>
-      <c r="H24" s="6">
-        <v>2.0353686999999998</v>
-      </c>
-      <c r="I24" s="6">
-        <v>4.8488610338730096</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9335483890303229</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6">
-        <v>0.41195264100000001</v>
-      </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <v>0.191858525</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.57557557500000001</v>
+      </c>
+      <c r="I24" s="5">
+        <v>4.8760602016808496</v>
+      </c>
+      <c r="J24" s="5">
+        <f>AVERAGE(I24:I27)</f>
+        <v>5.3018626140288196</v>
+      </c>
+      <c r="K24" s="5">
+        <f t="shared" ref="K24:K63" si="1">1/(H24-G24)</f>
+        <v>2.606086959127826</v>
+      </c>
+      <c r="L24" s="5">
+        <f>AVERAGE(K24:K27)</f>
+        <v>2.2674897865107062</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0.36594505599999999</v>
+      </c>
+      <c r="N24" s="5">
+        <f>AVERAGE(M24:M27)</f>
+        <v>0.26907926900000001</v>
+      </c>
+      <c r="O24" s="5">
+        <f>_xlfn.STDEV.S(M24:M27)</f>
+        <v>7.344706749007586E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="4">
-        <v>4</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5">
-        <v>0.191858525</v>
+        <v>0.56723389999999996</v>
       </c>
       <c r="H25" s="5">
-        <v>0.57557557500000001</v>
+        <v>1.0343677</v>
       </c>
       <c r="I25" s="5">
-        <v>4.8760602016808496</v>
-      </c>
-      <c r="J25" s="5">
-        <f>AVERAGE(I25:I28)</f>
-        <v>5.3018626140288196</v>
-      </c>
+        <v>4.83296473035087</v>
+      </c>
+      <c r="J25" s="5"/>
       <c r="K25" s="5">
-        <f t="shared" ref="K25:K65" si="1">1/(H25-G25)</f>
-        <v>2.606086959127826</v>
-      </c>
-      <c r="L25" s="5">
-        <f>AVERAGE(K25:K28)</f>
-        <v>2.2674897865107062</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>2.1407142878549998</v>
+      </c>
+      <c r="L25" s="5"/>
       <c r="M25" s="5">
-        <v>0.36594505599999999</v>
-      </c>
-      <c r="N25" s="5">
-        <f>AVERAGE(M25:M28)</f>
-        <v>0.26907926900000001</v>
-      </c>
-      <c r="O25" s="5">
-        <f>_xlfn.STDEV.S(M25:M28)</f>
-        <v>7.344706749007586E-2</v>
-      </c>
+        <v>0.20076525200000001</v>
+      </c>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
@@ -1672,22 +1670,22 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="5">
-        <v>0.56723389999999996</v>
+        <v>1.042709375</v>
       </c>
       <c r="H26" s="5">
-        <v>1.0343677</v>
+        <v>1.493159825</v>
       </c>
       <c r="I26" s="5">
-        <v>4.83296473035087</v>
+        <v>5.8179829203818096</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>2.1407142878549998</v>
+        <v>2.2200000022200004</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5">
-        <v>0.20076525200000001</v>
+        <v>0.225426286</v>
       </c>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
@@ -1700,103 +1698,103 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="5">
-        <v>1.042709375</v>
+        <v>1.493159825</v>
       </c>
       <c r="H27" s="5">
-        <v>1.493159825</v>
+        <v>1.9686353000000001</v>
       </c>
       <c r="I27" s="5">
-        <v>5.8179829203818096</v>
+        <v>5.6804426037017501</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
-        <v>2.2200000022200004</v>
+        <v>2.1031578968399995</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5">
-        <v>0.225426286</v>
+        <v>0.28418048200000001</v>
       </c>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="5">
-        <v>1.493159825</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1.9686353000000001</v>
-      </c>
-      <c r="I28" s="5">
-        <v>5.6804426037017501</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5">
+      <c r="A28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="6">
+        <v>0.34200867499999998</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.85085084999999905</v>
+      </c>
+      <c r="I28" s="6">
+        <v>4.9453465920161301</v>
+      </c>
+      <c r="J28" s="6">
+        <f>AVERAGE(I28:I30)</f>
+        <v>4.8698584112116432</v>
+      </c>
+      <c r="K28" s="6">
         <f t="shared" si="1"/>
-        <v>2.1031578968399995</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5">
-        <v>0.28418048200000001</v>
-      </c>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
+        <v>1.9652459036045937</v>
+      </c>
+      <c r="L28" s="6">
+        <f>AVERAGE(K28:K30)</f>
+        <v>1.9239730981693459</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0.34635000100000002</v>
+      </c>
+      <c r="N28" s="6">
+        <f>AVERAGE(M28:M30)</f>
+        <v>0.34988290366666663</v>
+      </c>
+      <c r="O28" s="6">
+        <f>_xlfn.STDEV.S(M28:M30)</f>
+        <v>7.445785296589201E-2</v>
+      </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="7">
-        <v>3</v>
-      </c>
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="6">
-        <v>0.34200867499999998</v>
+        <v>0.85085084999999905</v>
       </c>
       <c r="H29" s="6">
-        <v>0.85085084999999905</v>
+        <v>1.3680346999999999</v>
       </c>
       <c r="I29" s="6">
-        <v>4.9453465920161301</v>
-      </c>
-      <c r="J29" s="6">
-        <f>AVERAGE(I29:I31)</f>
-        <v>4.8698584112116432</v>
-      </c>
+        <v>4.7263426491111096</v>
+      </c>
+      <c r="J29" s="6"/>
       <c r="K29" s="6">
         <f t="shared" si="1"/>
-        <v>1.9652459036045937</v>
-      </c>
-      <c r="L29" s="6">
-        <f>AVERAGE(K29:K31)</f>
-        <v>1.9239730981693459</v>
-      </c>
+        <v>1.9335483890303193</v>
+      </c>
+      <c r="L29" s="6"/>
       <c r="M29" s="6">
-        <v>0.34635000100000002</v>
-      </c>
-      <c r="N29" s="6">
-        <f>AVERAGE(M29:M31)</f>
-        <v>0.34988290366666663</v>
-      </c>
-      <c r="O29" s="6">
-        <f>_xlfn.STDEV.S(M29:M31)</f>
-        <v>7.445785296589201E-2</v>
-      </c>
+        <v>0.27725439000000002</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
@@ -1806,181 +1804,181 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="6">
-        <v>0.85085084999999905</v>
+        <v>1.3680346999999999</v>
       </c>
       <c r="H30" s="6">
-        <v>1.3680346999999999</v>
+        <v>1.9019018999999999</v>
       </c>
       <c r="I30" s="6">
-        <v>4.7263426491111096</v>
+        <v>4.9378859925076899</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6">
         <f t="shared" si="1"/>
-        <v>1.9335483890303193</v>
+        <v>1.8731250018731251</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6">
-        <v>0.27725439000000002</v>
+        <v>0.42604431999999998</v>
       </c>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="6">
-        <v>1.3680346999999999</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1.9019018999999999</v>
-      </c>
-      <c r="I31" s="6">
-        <v>4.9378859925076899</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5">
+        <v>0.42542542500000002</v>
+      </c>
+      <c r="H31" s="5">
+        <v>1.0677344</v>
+      </c>
+      <c r="I31" s="5">
+        <v>4.3715507164155802</v>
+      </c>
+      <c r="J31" s="5">
+        <f>AVERAGE(I31:I32)</f>
+        <v>4.4983952017415696</v>
+      </c>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>1.55688311844</v>
+      </c>
+      <c r="L31" s="5">
+        <f>AVERAGE(K31:K32)</f>
+        <v>1.599537450452055</v>
+      </c>
+      <c r="M31" s="5">
+        <v>0.34483779599999997</v>
+      </c>
+      <c r="N31" s="5">
+        <f>AVERAGE(M31:M32)</f>
+        <v>0.35351648250000001</v>
+      </c>
+      <c r="O31" s="5">
+        <f>_xlfn.STDEV.S(M31:M32)</f>
+        <v>1.2273516151884295E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5">
+        <v>1.0593927249999999</v>
+      </c>
+      <c r="H32" s="5">
+        <v>1.6683349999999999</v>
+      </c>
+      <c r="I32" s="5">
+        <v>4.6252396870675598</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>1.6421917824641097</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5">
+        <v>0.36219516899999998</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="7">
+        <v>4</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="6">
+        <v>0.1668335</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.70070069999999995</v>
+      </c>
+      <c r="I33" s="6">
+        <v>4.5408545236153799</v>
+      </c>
+      <c r="J33" s="6">
+        <f>AVERAGE(I33:I36)</f>
+        <v>4.3784613294601797</v>
+      </c>
+      <c r="K33" s="6">
         <f t="shared" si="1"/>
         <v>1.8731250018731251</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6">
-        <v>0.42604431999999998</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5">
-        <v>0.42542542500000002</v>
-      </c>
-      <c r="H32" s="5">
-        <v>1.0677344</v>
-      </c>
-      <c r="I32" s="5">
-        <v>4.3715507164155802</v>
-      </c>
-      <c r="J32" s="5">
-        <f>AVERAGE(I32:I33)</f>
-        <v>4.4983952017415696</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="1"/>
-        <v>1.55688311844</v>
-      </c>
-      <c r="L32" s="5">
-        <f>AVERAGE(K32:K33)</f>
-        <v>1.599537450452055</v>
-      </c>
-      <c r="M32" s="5">
-        <v>0.34483779599999997</v>
-      </c>
-      <c r="N32" s="5">
-        <f>AVERAGE(M32:M33)</f>
-        <v>0.35351648250000001</v>
-      </c>
-      <c r="O32" s="5">
-        <f>_xlfn.STDEV.S(M32:M33)</f>
-        <v>1.2273516151884295E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="5">
-        <v>1.0593927249999999</v>
-      </c>
-      <c r="H33" s="5">
-        <v>1.6683349999999999</v>
-      </c>
-      <c r="I33" s="5">
-        <v>4.6252396870675598</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6421917824641097</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5">
-        <v>0.36219516899999998</v>
-      </c>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
+      <c r="L33" s="6">
+        <f>AVERAGE(K33:K36)</f>
+        <v>1.7893532158073442</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0.42631925999999998</v>
+      </c>
+      <c r="N33" s="6">
+        <f>AVERAGE(M33:M36)</f>
+        <v>0.34619306075</v>
+      </c>
+      <c r="O33" s="6">
+        <f>_xlfn.STDEV.S(M33:M36)</f>
+        <v>8.4973829557076386E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="7">
-        <v>4</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6">
-        <v>0.1668335</v>
+        <v>0.70070069999999995</v>
       </c>
       <c r="H34" s="6">
-        <v>0.70070069999999995</v>
+        <v>1.18451785</v>
       </c>
       <c r="I34" s="6">
-        <v>4.5408545236153799</v>
-      </c>
-      <c r="J34" s="6">
-        <f>AVERAGE(I34:I37)</f>
-        <v>4.3784613294601797</v>
-      </c>
+        <v>3.8463952756779598</v>
+      </c>
+      <c r="J34" s="6"/>
       <c r="K34" s="6">
         <f t="shared" si="1"/>
-        <v>1.8731250018731251</v>
-      </c>
-      <c r="L34" s="6">
-        <f>AVERAGE(K34:K37)</f>
-        <v>1.7893532158073442</v>
-      </c>
+        <v>2.0668965537910342</v>
+      </c>
+      <c r="L34" s="6"/>
       <c r="M34" s="6">
-        <v>0.42631925999999998</v>
-      </c>
-      <c r="N34" s="6">
-        <f>AVERAGE(M34:M37)</f>
-        <v>0.34619306075</v>
-      </c>
-      <c r="O34" s="6">
-        <f>_xlfn.STDEV.S(M34:M37)</f>
-        <v>8.4973829557076386E-2</v>
-      </c>
+        <v>0.40043437700000001</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
@@ -1990,22 +1988,22 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6">
-        <v>0.70070069999999995</v>
+        <v>1.18451785</v>
       </c>
       <c r="H35" s="6">
-        <v>1.18451785</v>
+        <v>1.760093425</v>
       </c>
       <c r="I35" s="6">
-        <v>3.8463952756779598</v>
+        <v>4.6049726391571397</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6">
         <f t="shared" si="1"/>
-        <v>2.0668965537910342</v>
+        <v>1.7373913060852173</v>
       </c>
       <c r="L35" s="6"/>
       <c r="M35" s="6">
-        <v>0.40043437700000001</v>
+        <v>0.23856173</v>
       </c>
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
@@ -2018,103 +2016,103 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6">
-        <v>1.18451785</v>
+        <v>1.760093425</v>
       </c>
       <c r="H36" s="6">
-        <v>1.760093425</v>
+        <v>2.4357690999999999</v>
       </c>
       <c r="I36" s="6">
-        <v>4.6049726391571397</v>
+        <v>4.5216228793902404</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6">
         <f t="shared" si="1"/>
-        <v>1.7373913060852173</v>
+        <v>1.4800000014800001</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6">
-        <v>0.23856173</v>
+        <v>0.319456876</v>
       </c>
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="6">
-        <v>1.760093425</v>
-      </c>
-      <c r="H37" s="6">
-        <v>2.4357690999999999</v>
-      </c>
-      <c r="I37" s="6">
-        <v>4.5216228793902404</v>
-      </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="4">
+        <v>4</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5">
+        <v>6.6733399999999998E-2</v>
+      </c>
+      <c r="H37" s="5">
+        <v>0.79245912499999904</v>
+      </c>
+      <c r="I37" s="5">
+        <v>3.87130917527272</v>
+      </c>
+      <c r="J37" s="5">
+        <f>AVERAGE(I37:I40)</f>
+        <v>4.2675276697541573</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="1"/>
-        <v>1.4800000014800001</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6">
-        <v>0.319456876</v>
-      </c>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
+        <v>1.3779310358606913</v>
+      </c>
+      <c r="L37" s="5">
+        <f>AVERAGE(K37:K40)</f>
+        <v>1.620032676920014</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.50279158999999995</v>
+      </c>
+      <c r="N37" s="5">
+        <f>AVERAGE(M37:M40)</f>
+        <v>0.38698441849999998</v>
+      </c>
+      <c r="O37" s="5">
+        <f>_xlfn.STDEV.S(M37:M40)</f>
+        <v>0.16312916730882343</v>
+      </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4</v>
-      </c>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="5">
-        <v>6.6733399999999998E-2</v>
+        <v>0.78411744999999999</v>
       </c>
       <c r="H38" s="5">
-        <v>0.79245912499999904</v>
+        <v>1.309642975</v>
       </c>
       <c r="I38" s="5">
-        <v>3.87130917527272</v>
-      </c>
-      <c r="J38" s="5">
-        <f>AVERAGE(I38:I41)</f>
-        <v>4.2675276697541573</v>
-      </c>
+        <v>4.4790127583437496</v>
+      </c>
+      <c r="J38" s="5"/>
       <c r="K38" s="5">
         <f t="shared" si="1"/>
-        <v>1.3779310358606913</v>
-      </c>
-      <c r="L38" s="5">
-        <f>AVERAGE(K38:K41)</f>
-        <v>1.620032676920014</v>
-      </c>
+        <v>1.9028571447599998</v>
+      </c>
+      <c r="L38" s="5"/>
       <c r="M38" s="5">
-        <v>0.50279158999999995</v>
-      </c>
-      <c r="N38" s="5">
-        <f>AVERAGE(M38:M41)</f>
-        <v>0.38698441849999998</v>
-      </c>
-      <c r="O38" s="5">
-        <f>_xlfn.STDEV.S(M38:M41)</f>
-        <v>0.16312916730882343</v>
-      </c>
+        <v>0.26826496100000002</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
@@ -2124,22 +2122,22 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="5">
-        <v>0.78411744999999999</v>
+        <v>1.309642975</v>
       </c>
       <c r="H39" s="5">
-        <v>1.309642975</v>
+        <v>1.88521855</v>
       </c>
       <c r="I39" s="5">
-        <v>4.4790127583437496</v>
+        <v>4.2855036947857101</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5">
         <f t="shared" si="1"/>
-        <v>1.9028571447599998</v>
+        <v>1.7373913060852173</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5">
-        <v>0.26826496100000002</v>
+        <v>0.22669458100000001</v>
       </c>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -2152,209 +2150,207 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="5">
-        <v>1.309642975</v>
+        <v>1.8935602250000001</v>
       </c>
       <c r="H40" s="5">
-        <v>1.88521855</v>
+        <v>2.5775775749999998</v>
       </c>
       <c r="I40" s="5">
-        <v>4.2855036947857101</v>
+        <v>4.4342850506144504</v>
       </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5">
         <f t="shared" si="1"/>
-        <v>1.7373913060852173</v>
+        <v>1.461951220974147</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5">
-        <v>0.22669458100000001</v>
+        <v>0.55018654199999995</v>
       </c>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5">
-        <v>1.8935602250000001</v>
-      </c>
-      <c r="H41" s="5">
-        <v>2.5775775749999998</v>
-      </c>
-      <c r="I41" s="5">
-        <v>4.4342850506144504</v>
-      </c>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.9009009</v>
+      </c>
+      <c r="I41" s="6">
+        <v>8.5261105870434797</v>
+      </c>
+      <c r="J41" s="6">
+        <f>AVERAGE(I41:I42)</f>
+        <v>8.5158732589021753</v>
+      </c>
+      <c r="K41" s="6">
         <f t="shared" si="1"/>
-        <v>1.461951220974147</v>
-      </c>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5">
-        <v>0.55018654199999995</v>
-      </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
+        <v>2.6640000026639932</v>
+      </c>
+      <c r="L41" s="6">
+        <f>AVERAGE(K41:K42)</f>
+        <v>2.6640000026639963</v>
+      </c>
+      <c r="M41" s="6">
+        <v>0.37143671099999997</v>
+      </c>
+      <c r="N41" s="6">
+        <f>AVERAGE(M41:M42)</f>
+        <v>0.43950148750000001</v>
+      </c>
+      <c r="O41" s="6">
+        <f>_xlfn.STDEV.S(M41:M42)</f>
+        <v>9.6258130046193449E-2</v>
+      </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A42" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="7">
-        <v>3</v>
-      </c>
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6">
-        <v>0.108441775</v>
+        <v>0.9009009</v>
       </c>
       <c r="H42" s="6">
-        <v>0.54220887500000003</v>
+        <v>1.2762762750000001</v>
       </c>
       <c r="I42" s="6">
-        <v>5.9003400154150896</v>
-      </c>
-      <c r="J42" s="6">
-        <f>AVERAGE(I42:I44)</f>
-        <v>7.6440288444064803</v>
-      </c>
+        <v>8.5056359307608709</v>
+      </c>
+      <c r="J42" s="6"/>
       <c r="K42" s="6">
         <f t="shared" si="1"/>
-        <v>2.3053846176899997</v>
-      </c>
-      <c r="L42" s="6">
-        <f>AVERAGE(K42:K44)</f>
-        <v>2.5444615410059974</v>
-      </c>
+        <v>2.6640000026639994</v>
+      </c>
+      <c r="L42" s="6"/>
       <c r="M42" s="6">
-        <v>0.58314212600000004</v>
-      </c>
-      <c r="N42" s="6">
-        <f>AVERAGE(M42:M44)</f>
-        <v>0.48738170033333333</v>
-      </c>
-      <c r="O42" s="6">
-        <f>_xlfn.STDEV.S(M42:M44)</f>
-        <v>0.10728633716783728</v>
-      </c>
+        <v>0.50756626400000004</v>
+      </c>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="6">
-        <v>0.52552552499999905</v>
-      </c>
-      <c r="H43" s="6">
-        <v>0.9009009</v>
-      </c>
-      <c r="I43" s="6">
-        <v>8.5261105870434797</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6">
+      <c r="A43" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="4">
+        <v>5</v>
+      </c>
+      <c r="F43" s="4"/>
+      <c r="G43" s="5">
+        <v>0.20854187499999999</v>
+      </c>
+      <c r="H43" s="5">
+        <v>0.55055054999999997</v>
+      </c>
+      <c r="I43" s="5">
+        <v>5.0566389937142802</v>
+      </c>
+      <c r="J43" s="5">
+        <f>AVERAGE(I43:I47)</f>
+        <v>4.7811848240241144</v>
+      </c>
+      <c r="K43" s="5">
         <f t="shared" si="1"/>
-        <v>2.6640000026639932</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6">
-        <v>0.37143671099999997</v>
-      </c>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
+        <v>2.9239024419482926</v>
+      </c>
+      <c r="L43" s="5">
+        <f>AVERAGE(K43:K47)</f>
+        <v>2.7991873520353168</v>
+      </c>
+      <c r="M43" s="5">
+        <v>0.28814393799999999</v>
+      </c>
+      <c r="N43" s="5">
+        <f>AVERAGE(M43:M47)</f>
+        <v>0.24366675240000002</v>
+      </c>
+      <c r="O43" s="5">
+        <f>_xlfn.STDEV.S(M43:M47)</f>
+        <v>3.0074868608829713E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="6">
-        <v>0.9009009</v>
-      </c>
-      <c r="H44" s="6">
-        <v>1.2762762750000001</v>
-      </c>
-      <c r="I44" s="6">
-        <v>8.5056359307608709</v>
-      </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="5">
+        <v>0.55889222500000002</v>
+      </c>
+      <c r="H44" s="5">
+        <v>0.90924257499999905</v>
+      </c>
+      <c r="I44" s="5">
+        <v>5.2446817093488303</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
         <f t="shared" si="1"/>
-        <v>2.6640000026639994</v>
-      </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6">
-        <v>0.50756626400000004</v>
-      </c>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
+        <v>2.8542857171400078</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5">
+        <v>0.25927634900000002</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="4">
-        <v>5</v>
-      </c>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="5">
-        <v>0.20854187499999999</v>
+        <v>0.90924257499999905</v>
       </c>
       <c r="H45" s="5">
-        <v>0.55055054999999997</v>
+        <v>1.2512512499999999</v>
       </c>
       <c r="I45" s="5">
-        <v>5.0566389937142802</v>
-      </c>
-      <c r="J45" s="5">
-        <f>AVERAGE(I45:I49)</f>
-        <v>4.7811848240241144</v>
-      </c>
+        <v>4.6254519902142803</v>
+      </c>
+      <c r="J45" s="5"/>
       <c r="K45" s="5">
         <f t="shared" si="1"/>
-        <v>2.9239024419482926</v>
-      </c>
-      <c r="L45" s="5">
-        <f>AVERAGE(K45:K49)</f>
-        <v>2.7991873520353168</v>
-      </c>
+        <v>2.9239024419482851</v>
+      </c>
+      <c r="L45" s="5"/>
       <c r="M45" s="5">
-        <v>0.28814393799999999</v>
-      </c>
-      <c r="N45" s="5">
-        <f>AVERAGE(M45:M49)</f>
-        <v>0.24366675240000002</v>
-      </c>
-      <c r="O45" s="5">
-        <f>_xlfn.STDEV.S(M45:M49)</f>
-        <v>3.0074868608829713E-2</v>
-      </c>
+        <v>0.21628915900000001</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
@@ -2364,22 +2360,22 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="5">
-        <v>0.55889222500000002</v>
+        <v>1.259592925</v>
       </c>
       <c r="H46" s="5">
-        <v>0.90924257499999905</v>
+        <v>1.5849182500000001</v>
       </c>
       <c r="I46" s="5">
-        <v>5.2446817093488303</v>
+        <v>4.3784824840249996</v>
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5">
         <f t="shared" si="1"/>
-        <v>2.8542857171400078</v>
+        <v>3.0738461569199989</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="5">
-        <v>0.25927634900000002</v>
+        <v>0.21984110700000001</v>
       </c>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -2392,131 +2388,131 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="5">
-        <v>0.90924257499999905</v>
+        <v>1.5849182500000001</v>
       </c>
       <c r="H47" s="5">
-        <v>1.2512512499999999</v>
+        <v>2.0353686999999998</v>
       </c>
       <c r="I47" s="5">
-        <v>4.6254519902142803</v>
+        <v>4.6006689428181797</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5">
         <f t="shared" si="1"/>
-        <v>2.9239024419482851</v>
+        <v>2.2200000022200013</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="5">
-        <v>0.21628915900000001</v>
+        <v>0.23478320899999999</v>
       </c>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="5">
-        <v>1.259592925</v>
-      </c>
-      <c r="H48" s="5">
-        <v>1.5849182500000001</v>
-      </c>
-      <c r="I48" s="5">
-        <v>4.3784824840249996</v>
-      </c>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5">
+      <c r="A48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="7">
+        <v>5</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="6">
+        <v>0.1668335</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.48381714999999997</v>
+      </c>
+      <c r="I48" s="6">
+        <v>4.1359954528717902</v>
+      </c>
+      <c r="J48" s="6">
+        <f>AVERAGE(I48:I52)</f>
+        <v>4.7131918978195557</v>
+      </c>
+      <c r="K48" s="6">
         <f t="shared" si="1"/>
-        <v>3.0738461569199989</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5">
-        <v>0.21984110700000001</v>
-      </c>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
+        <v>3.1547368452600004</v>
+      </c>
+      <c r="L48" s="6">
+        <f>AVERAGE(K48:K52)</f>
+        <v>2.7919820008058194</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0.16916249899999999</v>
+      </c>
+      <c r="N48" s="6">
+        <f>AVERAGE(M48:M52)</f>
+        <v>0.26391069759999997</v>
+      </c>
+      <c r="O48" s="6">
+        <f>_xlfn.STDEV.S(M48:M52)</f>
+        <v>6.2172676648869558E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="5">
-        <v>1.5849182500000001</v>
-      </c>
-      <c r="H49" s="5">
-        <v>2.0353686999999998</v>
-      </c>
-      <c r="I49" s="5">
-        <v>4.6006689428181797</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6">
+        <v>0.48381714999999997</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.82582582500000001</v>
+      </c>
+      <c r="I49" s="6">
+        <v>4.8758412578333301</v>
+      </c>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6">
         <f t="shared" si="1"/>
-        <v>2.2200000022200013</v>
-      </c>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5">
-        <v>0.23478320899999999</v>
-      </c>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
+        <v>2.9239024419482922</v>
+      </c>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6">
+        <v>0.30795999000000002</v>
+      </c>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A50" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="7">
-        <v>5</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="6">
-        <v>0.1668335</v>
+        <v>0.83416749999999995</v>
       </c>
       <c r="H50" s="6">
-        <v>0.48381714999999997</v>
+        <v>1.2012012000000001</v>
       </c>
       <c r="I50" s="6">
-        <v>4.1359954528717902</v>
-      </c>
-      <c r="J50" s="6">
-        <f>AVERAGE(I50:I54)</f>
-        <v>4.7131918978195557</v>
-      </c>
+        <v>4.8212945066444401</v>
+      </c>
+      <c r="J50" s="6"/>
       <c r="K50" s="6">
         <f t="shared" si="1"/>
-        <v>3.1547368452600004</v>
-      </c>
-      <c r="L50" s="6">
-        <f>AVERAGE(K50:K54)</f>
-        <v>2.7919820008058194</v>
-      </c>
+        <v>2.7245454572699992</v>
+      </c>
+      <c r="L50" s="6"/>
       <c r="M50" s="6">
-        <v>0.16916249899999999</v>
-      </c>
-      <c r="N50" s="6">
-        <f>AVERAGE(M50:M54)</f>
-        <v>0.26391069759999997</v>
-      </c>
-      <c r="O50" s="6">
-        <f>_xlfn.STDEV.S(M50:M54)</f>
-        <v>6.2172676648869558E-2</v>
-      </c>
+        <v>0.32853232700000001</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
@@ -2526,22 +2522,22 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="6">
-        <v>0.48381714999999997</v>
+        <v>1.2012012000000001</v>
       </c>
       <c r="H51" s="6">
-        <v>0.82582582500000001</v>
+        <v>1.5849182500000001</v>
       </c>
       <c r="I51" s="6">
-        <v>4.8758412578333301</v>
+        <v>4.9424278649148903</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6">
         <f t="shared" si="1"/>
-        <v>2.9239024419482922</v>
+        <v>2.606086959127826</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6">
-        <v>0.30795999000000002</v>
+        <v>0.24530181500000001</v>
       </c>
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
@@ -2554,131 +2550,131 @@
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6">
-        <v>0.83416749999999995</v>
+        <v>1.576576575</v>
       </c>
       <c r="H52" s="6">
-        <v>1.2012012000000001</v>
+        <v>1.9686353000000001</v>
       </c>
       <c r="I52" s="6">
-        <v>4.8212945066444401</v>
+        <v>4.7904004068333297</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6">
         <f t="shared" si="1"/>
-        <v>2.7245454572699992</v>
+        <v>2.5506383004229782</v>
       </c>
       <c r="L52" s="6"/>
       <c r="M52" s="6">
-        <v>0.32853232700000001</v>
+        <v>0.26859685700000002</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="6">
-        <v>1.2012012000000001</v>
-      </c>
-      <c r="H53" s="6">
-        <v>1.5849182500000001</v>
-      </c>
-      <c r="I53" s="6">
-        <v>4.9424278649148903</v>
-      </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="5">
+        <v>0.18351685000000001</v>
+      </c>
+      <c r="H53" s="5">
+        <v>0.47547547499999998</v>
+      </c>
+      <c r="I53" s="5">
+        <v>7.6659382634444402</v>
+      </c>
+      <c r="J53" s="5">
+        <f>AVERAGE(I53:I57)</f>
+        <v>7.0857636690644714</v>
+      </c>
+      <c r="K53" s="5">
         <f t="shared" si="1"/>
-        <v>2.606086959127826</v>
-      </c>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6">
-        <v>0.24530181500000001</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+        <v>3.4251428605680005</v>
+      </c>
+      <c r="L53" s="5">
+        <f>AVERAGE(K53:K57)</f>
+        <v>2.991939029002797</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.27357931299999999</v>
+      </c>
+      <c r="N53" s="5">
+        <f>AVERAGE(M53:M57)</f>
+        <v>0.37386891659999999</v>
+      </c>
+      <c r="O53" s="5">
+        <f>_xlfn.STDEV.S(M53:M57)</f>
+        <v>7.7903415596241019E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="6">
-        <v>1.576576575</v>
-      </c>
-      <c r="H54" s="6">
-        <v>1.9686353000000001</v>
-      </c>
-      <c r="I54" s="6">
-        <v>4.7904004068333297</v>
-      </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="5">
+        <v>0.47547547499999998</v>
+      </c>
+      <c r="H54" s="5">
+        <v>0.76743410000000001</v>
+      </c>
+      <c r="I54" s="5">
+        <v>7.8486556138055503</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
         <f t="shared" si="1"/>
-        <v>2.5506383004229782</v>
-      </c>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6">
-        <v>0.26859685700000002</v>
-      </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
+        <v>3.4251428605679997</v>
+      </c>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5">
+        <v>0.31642267899999998</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A55" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="4">
-        <v>5</v>
-      </c>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="5">
-        <v>0.18351685000000001</v>
+        <v>0.76743410000000001</v>
       </c>
       <c r="H55" s="5">
-        <v>0.47547547499999998</v>
+        <v>1.1261261250000001</v>
       </c>
       <c r="I55" s="5">
-        <v>7.6659382634444402</v>
-      </c>
-      <c r="J55" s="5">
-        <f>AVERAGE(I55:I59)</f>
-        <v>7.0857636690644714</v>
-      </c>
+        <v>7.6831406500681796</v>
+      </c>
+      <c r="J55" s="5"/>
       <c r="K55" s="5">
         <f t="shared" si="1"/>
-        <v>3.4251428605680005</v>
-      </c>
-      <c r="L55" s="5">
-        <f>AVERAGE(K55:K59)</f>
-        <v>2.991939029002797</v>
-      </c>
+        <v>2.7879069795320923</v>
+      </c>
+      <c r="L55" s="5"/>
       <c r="M55" s="5">
-        <v>0.27357931299999999</v>
-      </c>
-      <c r="N55" s="5">
-        <f>AVERAGE(M55:M59)</f>
-        <v>0.37386891659999999</v>
-      </c>
-      <c r="O55" s="5">
-        <f>_xlfn.STDEV.S(M55:M59)</f>
-        <v>7.7903415596241019E-2</v>
-      </c>
+        <v>0.43244019900000003</v>
+      </c>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
@@ -2688,22 +2684,22 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="5">
-        <v>0.47547547499999998</v>
+        <v>1.1261261250000001</v>
       </c>
       <c r="H56" s="5">
-        <v>0.76743410000000001</v>
+        <v>1.5432098750000001</v>
       </c>
       <c r="I56" s="5">
-        <v>7.8486556138055503</v>
+        <v>6.0667271766470501</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5">
         <f t="shared" si="1"/>
-        <v>3.4251428605679997</v>
+        <v>2.3976000023976001</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5">
-        <v>0.31642267899999998</v>
+        <v>0.38760224999999998</v>
       </c>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
@@ -2716,131 +2712,131 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="5">
-        <v>0.76743410000000001</v>
+        <v>1.5432098750000001</v>
       </c>
       <c r="H57" s="5">
-        <v>1.1261261250000001</v>
+        <v>1.88521855</v>
       </c>
       <c r="I57" s="5">
-        <v>7.6831406500681796</v>
+        <v>6.1643566413571396</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5">
         <f t="shared" si="1"/>
-        <v>2.7879069795320923</v>
+        <v>2.9239024419482926</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5">
-        <v>0.43244019900000003</v>
+        <v>0.45930014200000002</v>
       </c>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="5">
-        <v>1.1261261250000001</v>
-      </c>
-      <c r="H58" s="5">
-        <v>1.5432098750000001</v>
-      </c>
-      <c r="I58" s="5">
-        <v>6.0667271766470501</v>
-      </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5">
+      <c r="A58" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="7">
+        <v>4</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="6">
+        <v>0.18351685000000001</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="I58" s="6">
+        <v>5.0359402338333297</v>
+      </c>
+      <c r="J58" s="6">
+        <f>AVERAGE(I58:I61)</f>
+        <v>4.3930245954191172</v>
+      </c>
+      <c r="K58" s="6">
         <f t="shared" si="1"/>
-        <v>2.3976000023976001</v>
-      </c>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5">
-        <v>0.38760224999999998</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
+        <v>2.9239024419483011</v>
+      </c>
+      <c r="L58" s="6">
+        <f>AVERAGE(K58:K61)</f>
+        <v>2.7990215506595679</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0.26851288400000001</v>
+      </c>
+      <c r="N58" s="6">
+        <f>AVERAGE(M58:M61)</f>
+        <v>0.21913110600000002</v>
+      </c>
+      <c r="O58" s="6">
+        <f>_xlfn.STDEV.S(M58:M61)</f>
+        <v>3.4418847250730751E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="5">
-        <v>1.5432098750000001</v>
-      </c>
-      <c r="H59" s="5">
-        <v>1.88521855</v>
-      </c>
-      <c r="I59" s="5">
-        <v>6.1643566413571396</v>
-      </c>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.89255922499999996</v>
+      </c>
+      <c r="I59" s="6">
+        <v>4.7527880518888797</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6">
         <f t="shared" si="1"/>
-        <v>2.9239024419482926</v>
-      </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5">
-        <v>0.45930014200000002</v>
-      </c>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
+        <v>2.7245454572699934</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6">
+        <v>0.216142432</v>
+      </c>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E60" s="7">
-        <v>4</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="6">
-        <v>0.18351685000000001</v>
+        <v>0.9009009</v>
       </c>
       <c r="H60" s="6">
-        <v>0.52552552499999905</v>
+        <v>1.2345679000000001</v>
       </c>
       <c r="I60" s="6">
-        <v>5.0359402338333297</v>
-      </c>
-      <c r="J60" s="6">
-        <f>AVERAGE(I60:I63)</f>
-        <v>4.3930245954191172</v>
-      </c>
+        <v>3.91043170682926</v>
+      </c>
+      <c r="J60" s="6"/>
       <c r="K60" s="6">
         <f t="shared" si="1"/>
-        <v>2.9239024419483011</v>
-      </c>
-      <c r="L60" s="6">
-        <f>AVERAGE(K60:K63)</f>
-        <v>2.7990215506595679</v>
-      </c>
+        <v>2.9970000029969994</v>
+      </c>
+      <c r="L60" s="6"/>
       <c r="M60" s="6">
-        <v>0.26851288400000001</v>
-      </c>
-      <c r="N60" s="6">
-        <f>AVERAGE(M60:M63)</f>
-        <v>0.21913110600000002</v>
-      </c>
-      <c r="O60" s="6">
-        <f>_xlfn.STDEV.S(M60:M63)</f>
-        <v>3.4418847250730751E-2</v>
-      </c>
+        <v>0.192041039</v>
+      </c>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
@@ -2850,131 +2846,131 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6">
-        <v>0.52552552499999905</v>
+        <v>1.2345679000000001</v>
       </c>
       <c r="H61" s="6">
-        <v>0.89255922499999996</v>
+        <v>1.6266266250000001</v>
       </c>
       <c r="I61" s="6">
-        <v>4.7527880518888797</v>
+        <v>3.8729383891250002</v>
       </c>
       <c r="J61" s="6"/>
       <c r="K61" s="6">
         <f t="shared" si="1"/>
-        <v>2.7245454572699934</v>
+        <v>2.5506383004229782</v>
       </c>
       <c r="L61" s="6"/>
       <c r="M61" s="6">
-        <v>0.216142432</v>
+        <v>0.199828069</v>
       </c>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="6">
-        <v>0.9009009</v>
-      </c>
-      <c r="H62" s="6">
-        <v>1.2345679000000001</v>
-      </c>
-      <c r="I62" s="6">
-        <v>3.91043170682926</v>
-      </c>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6">
+      <c r="A62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E62" s="4">
+        <v>5</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="5">
+        <v>5.8391724999999998E-2</v>
+      </c>
+      <c r="H62" s="5">
+        <v>0.40874207499999998</v>
+      </c>
+      <c r="I62" s="5">
+        <v>5.8640414151395301</v>
+      </c>
+      <c r="J62" s="5">
+        <f>AVERAGE(I62:I66)</f>
+        <v>5.2609141396451324</v>
+      </c>
+      <c r="K62" s="5">
         <f t="shared" si="1"/>
-        <v>2.9970000029969994</v>
-      </c>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6">
-        <v>0.192041039</v>
-      </c>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
+        <v>2.8542857171400002</v>
+      </c>
+      <c r="L62" s="5">
+        <f>AVERAGE(K62:K66)</f>
+        <v>2.7300233793534003</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.257099894</v>
+      </c>
+      <c r="N62" s="5">
+        <f>AVERAGE(M62:M66)</f>
+        <v>0.27234647840000004</v>
+      </c>
+      <c r="O62" s="5">
+        <f>_xlfn.STDEV.S(M62:M66)</f>
+        <v>3.31166046810627E-2</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="6">
-        <v>1.2345679000000001</v>
-      </c>
-      <c r="H63" s="6">
-        <v>1.6266266250000001</v>
-      </c>
-      <c r="I63" s="6">
-        <v>3.8729383891250002</v>
-      </c>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="5">
+        <v>0.40040039999999999</v>
+      </c>
+      <c r="H63" s="5">
+        <v>0.76743410000000001</v>
+      </c>
+      <c r="I63" s="5">
+        <v>5.6939708462888801</v>
+      </c>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
         <f t="shared" si="1"/>
-        <v>2.5506383004229782</v>
-      </c>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6">
-        <v>0.199828069</v>
-      </c>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
+        <v>2.7245454572700001</v>
+      </c>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5">
+        <v>0.28348047100000001</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A64" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E64" s="4">
-        <v>5</v>
-      </c>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="5">
-        <v>5.8391724999999998E-2</v>
+        <v>0.75909242499999996</v>
       </c>
       <c r="H64" s="5">
-        <v>0.40874207499999998</v>
+        <v>1.2095428749999999</v>
       </c>
       <c r="I64" s="5">
-        <v>5.8640414151395301</v>
-      </c>
-      <c r="J64" s="5">
-        <f>AVERAGE(I64:I68)</f>
-        <v>5.2609141396451324</v>
-      </c>
+        <v>4.9745945835272698</v>
+      </c>
+      <c r="J64" s="5"/>
       <c r="K64" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8542857171400002</v>
-      </c>
-      <c r="L64" s="5">
-        <f>AVERAGE(K64:K68)</f>
-        <v>2.7300233793534003</v>
-      </c>
+        <f t="shared" ref="K64:K88" si="2">1/(H64-G64)</f>
+        <v>2.2200000022200004</v>
+      </c>
+      <c r="L64" s="5"/>
       <c r="M64" s="5">
-        <v>0.257099894</v>
-      </c>
-      <c r="N64" s="5">
-        <f>AVERAGE(M64:M68)</f>
-        <v>0.27234647840000004</v>
-      </c>
-      <c r="O64" s="5">
-        <f>_xlfn.STDEV.S(M64:M68)</f>
-        <v>3.31166046810627E-2</v>
-      </c>
+        <v>0.32503448699999998</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
@@ -2984,22 +2980,22 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="5">
-        <v>0.40040039999999999</v>
+        <v>1.2012012000000001</v>
       </c>
       <c r="H65" s="5">
-        <v>0.76743410000000001</v>
+        <v>1.5515515499999999</v>
       </c>
       <c r="I65" s="5">
-        <v>5.6939708462888801</v>
+        <v>4.6688789954651098</v>
       </c>
       <c r="J65" s="5"/>
       <c r="K65" s="5">
-        <f t="shared" si="1"/>
-        <v>2.7245454572700001</v>
+        <f t="shared" si="2"/>
+        <v>2.8542857171400016</v>
       </c>
       <c r="L65" s="5"/>
       <c r="M65" s="5">
-        <v>0.28348047100000001</v>
+        <v>0.25416622799999999</v>
       </c>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
@@ -3012,237 +3008,237 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="5">
-        <v>0.75909242499999996</v>
+        <v>1.5432098750000001</v>
       </c>
       <c r="H66" s="5">
-        <v>1.2095428749999999</v>
+        <v>1.876876875</v>
       </c>
       <c r="I66" s="5">
-        <v>4.9745945835272698</v>
+        <v>5.1030848578048698</v>
       </c>
       <c r="J66" s="5"/>
       <c r="K66" s="5">
-        <f t="shared" ref="K66:K91" si="2">1/(H66-G66)</f>
-        <v>2.2200000022200004</v>
+        <f t="shared" si="2"/>
+        <v>2.9970000029970008</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5">
-        <v>0.32503448699999998</v>
+        <v>0.241951312</v>
       </c>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="5">
-        <v>1.2012012000000001</v>
-      </c>
-      <c r="H67" s="5">
-        <v>1.5515515499999999</v>
-      </c>
-      <c r="I67" s="5">
-        <v>4.6688789954651098</v>
-      </c>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5">
+      <c r="A67" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="7">
+        <v>3</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0.54220887500000003</v>
+      </c>
+      <c r="I67" s="6">
+        <v>2.3493431793333301</v>
+      </c>
+      <c r="J67" s="6">
+        <f>AVERAGE(I67:I69)</f>
+        <v>2.9330009675758433</v>
+      </c>
+      <c r="K67" s="6">
         <f t="shared" si="2"/>
-        <v>2.8542857171400016</v>
-      </c>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5">
-        <v>0.25416622799999999</v>
-      </c>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
+        <v>1.8443076941519998</v>
+      </c>
+      <c r="L67" s="6">
+        <f>AVERAGE(K67:K69)</f>
+        <v>1.8797044270656851</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0.48895650000000002</v>
+      </c>
+      <c r="N67" s="6">
+        <f>AVERAGE(M67:M69)</f>
+        <v>0.29405890400000001</v>
+      </c>
+      <c r="O67" s="6">
+        <f>_xlfn.STDEV.S(M67:M69)</f>
+        <v>0.16895235576484266</v>
+      </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="5">
-        <v>1.5432098750000001</v>
-      </c>
-      <c r="H68" s="5">
-        <v>1.876876875</v>
-      </c>
-      <c r="I68" s="5">
-        <v>5.1030848578048698</v>
-      </c>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="6">
+        <v>0.54220887500000003</v>
+      </c>
+      <c r="H68" s="6">
+        <v>1.0343677</v>
+      </c>
+      <c r="I68" s="6">
+        <v>3.0016049288</v>
+      </c>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6">
         <f t="shared" si="2"/>
-        <v>2.9970000029970008</v>
-      </c>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5">
-        <v>0.241951312</v>
-      </c>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
+        <v>2.0318644088115256</v>
+      </c>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6">
+        <v>0.204099687</v>
+      </c>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E69" s="7">
-        <v>3</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="6">
-        <v>0</v>
+        <v>1.0343677</v>
       </c>
       <c r="H69" s="6">
-        <v>0.54220887500000003</v>
+        <v>1.6016016</v>
       </c>
       <c r="I69" s="6">
-        <v>2.3493431793333301</v>
-      </c>
-      <c r="J69" s="6">
-        <f>AVERAGE(I69:I71)</f>
-        <v>2.9330009675758433</v>
-      </c>
+        <v>3.4480547945942002</v>
+      </c>
+      <c r="J69" s="6"/>
       <c r="K69" s="6">
         <f t="shared" si="2"/>
-        <v>1.8443076941519998</v>
-      </c>
-      <c r="L69" s="6">
-        <f>AVERAGE(K69:K71)</f>
-        <v>1.8797044270656851</v>
-      </c>
+        <v>1.7629411782335296</v>
+      </c>
+      <c r="L69" s="6"/>
       <c r="M69" s="6">
-        <v>0.48895650000000002</v>
-      </c>
-      <c r="N69" s="6">
-        <f>AVERAGE(M69:M71)</f>
-        <v>0.29405890400000001</v>
-      </c>
-      <c r="O69" s="6">
-        <f>_xlfn.STDEV.S(M69:M71)</f>
-        <v>0.16895235576484266</v>
-      </c>
+        <v>0.18912052500000001</v>
+      </c>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="6">
-        <v>0.54220887500000003</v>
-      </c>
-      <c r="H70" s="6">
-        <v>1.0343677</v>
-      </c>
-      <c r="I70" s="6">
-        <v>3.0016049288</v>
-      </c>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6">
+      <c r="A70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E70" s="4">
+        <v>4</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5">
+        <v>0.20854187499999999</v>
+      </c>
+      <c r="H70" s="5">
+        <v>0.60894227499999998</v>
+      </c>
+      <c r="I70" s="5">
+        <v>3.5800106850612199</v>
+      </c>
+      <c r="J70" s="5">
+        <f>AVERAGE(I70:I73)</f>
+        <v>4.0680910914947974</v>
+      </c>
+      <c r="K70" s="5">
         <f t="shared" si="2"/>
-        <v>2.0318644088115256</v>
-      </c>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6">
-        <v>0.204099687</v>
-      </c>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
+        <v>2.4975000024975</v>
+      </c>
+      <c r="L70" s="5">
+        <f>AVERAGE(K70:K73)</f>
+        <v>2.0596820131838025</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0.27991750700000001</v>
+      </c>
+      <c r="N70" s="5">
+        <f>AVERAGE(M70:M73)</f>
+        <v>0.27775172525000003</v>
+      </c>
+      <c r="O70" s="5">
+        <f>_xlfn.STDEV.S(M70:M73)</f>
+        <v>3.822687089791442E-2</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="6">
-        <v>1.0343677</v>
-      </c>
-      <c r="H71" s="6">
-        <v>1.6016016</v>
-      </c>
-      <c r="I71" s="6">
-        <v>3.4480547945942002</v>
-      </c>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="5">
+        <v>0.60060059999999904</v>
+      </c>
+      <c r="H71" s="5">
+        <v>1.1344677999999999</v>
+      </c>
+      <c r="I71" s="5">
+        <v>4.1657292715076899</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5">
         <f t="shared" si="2"/>
-        <v>1.7629411782335296</v>
-      </c>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6">
-        <v>0.18912052500000001</v>
-      </c>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
+        <v>1.873125001873122</v>
+      </c>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5">
+        <v>0.32611307</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A72" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="4">
-        <v>4</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="5">
-        <v>0.20854187499999999</v>
+        <v>1.1344677999999999</v>
       </c>
       <c r="H72" s="5">
-        <v>0.60894227499999998</v>
+        <v>1.643309975</v>
       </c>
       <c r="I72" s="5">
-        <v>3.5800106850612199</v>
-      </c>
-      <c r="J72" s="5">
-        <f>AVERAGE(I72:I75)</f>
-        <v>4.0680910914947974</v>
-      </c>
+        <v>4.2481488131290304</v>
+      </c>
+      <c r="J72" s="5"/>
       <c r="K72" s="5">
         <f t="shared" si="2"/>
-        <v>2.4975000024975</v>
-      </c>
-      <c r="L72" s="5">
-        <f>AVERAGE(K72:K75)</f>
-        <v>2.0596820131838025</v>
-      </c>
+        <v>1.9652459036045899</v>
+      </c>
+      <c r="L72" s="5"/>
       <c r="M72" s="5">
-        <v>0.27991750700000001</v>
-      </c>
-      <c r="N72" s="5">
-        <f>AVERAGE(M72:M75)</f>
-        <v>0.27775172525000003</v>
-      </c>
-      <c r="O72" s="5">
-        <f>_xlfn.STDEV.S(M72:M75)</f>
-        <v>3.822687089791442E-2</v>
-      </c>
+        <v>0.23294493499999999</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
@@ -3252,237 +3248,237 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="5">
-        <v>0.60060059999999904</v>
+        <v>1.6349682999999999</v>
       </c>
       <c r="H73" s="5">
-        <v>1.1344677999999999</v>
+        <v>2.1604938250000001</v>
       </c>
       <c r="I73" s="5">
-        <v>4.1657292715076899</v>
+        <v>4.2784755962812504</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="5">
         <f t="shared" si="2"/>
-        <v>1.873125001873122</v>
+        <v>1.9028571447599993</v>
       </c>
       <c r="L73" s="5"/>
       <c r="M73" s="5">
-        <v>0.32611307</v>
+        <v>0.27203138900000001</v>
       </c>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="5">
-        <v>1.1344677999999999</v>
-      </c>
-      <c r="H74" s="5">
-        <v>1.643309975</v>
-      </c>
-      <c r="I74" s="5">
-        <v>4.2481488131290304</v>
-      </c>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5">
+      <c r="A74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="7">
+        <v>3</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="6">
+        <v>0.1334668</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0.69235902500000002</v>
+      </c>
+      <c r="I74" s="6">
+        <v>3.7340358403088199</v>
+      </c>
+      <c r="J74" s="6">
+        <f>AVERAGE(I74:I76)</f>
+        <v>4.183430048849023</v>
+      </c>
+      <c r="K74" s="6">
         <f t="shared" si="2"/>
-        <v>1.9652459036045899</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5">
-        <v>0.23294493499999999</v>
-      </c>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
+        <v>1.7892537331325373</v>
+      </c>
+      <c r="L74" s="6">
+        <f>AVERAGE(K74:K76)</f>
+        <v>1.7240649709953557</v>
+      </c>
+      <c r="M74" s="6">
+        <v>0.52724715999999905</v>
+      </c>
+      <c r="N74" s="6">
+        <f>AVERAGE(M74:M76)</f>
+        <v>0.32119466399999969</v>
+      </c>
+      <c r="O74" s="6">
+        <f>_xlfn.STDEV.S(M74:M76)</f>
+        <v>0.19991231166976167</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="5">
-        <v>1.6349682999999999</v>
-      </c>
-      <c r="H75" s="5">
-        <v>2.1604938250000001</v>
-      </c>
-      <c r="I75" s="5">
-        <v>4.2784755962812504</v>
-      </c>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="6">
+        <v>0.68401734999999997</v>
+      </c>
+      <c r="H75" s="6">
+        <v>1.3013013</v>
+      </c>
+      <c r="I75" s="6">
+        <v>4.5465283507600001</v>
+      </c>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6">
         <f t="shared" si="2"/>
-        <v>1.9028571447599993</v>
-      </c>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5">
-        <v>0.27203138900000001</v>
-      </c>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
+        <v>1.62000000162</v>
+      </c>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6">
+        <v>0.30828894099999998</v>
+      </c>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A76" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="7">
-        <v>3</v>
-      </c>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="6">
-        <v>0.1334668</v>
+        <v>1.309642975</v>
       </c>
       <c r="H76" s="6">
-        <v>0.69235902500000002</v>
+        <v>1.876876875</v>
       </c>
       <c r="I76" s="6">
-        <v>3.7340358403088199</v>
-      </c>
-      <c r="J76" s="6">
-        <f>AVERAGE(I76:I78)</f>
-        <v>4.183430048849023</v>
-      </c>
+        <v>4.2697259554782496</v>
+      </c>
+      <c r="J76" s="6"/>
       <c r="K76" s="6">
         <f t="shared" si="2"/>
-        <v>1.7892537331325373</v>
-      </c>
-      <c r="L76" s="6">
-        <f>AVERAGE(K76:K78)</f>
-        <v>1.7240649709953557</v>
-      </c>
+        <v>1.7629411782335296</v>
+      </c>
+      <c r="L76" s="6"/>
       <c r="M76" s="6">
-        <v>0.52724715999999905</v>
-      </c>
-      <c r="N76" s="6">
-        <f>AVERAGE(M76:M78)</f>
-        <v>0.32119466399999969</v>
-      </c>
-      <c r="O76" s="6">
-        <f>_xlfn.STDEV.S(M76:M78)</f>
-        <v>0.19991231166976167</v>
-      </c>
+        <v>0.128047891</v>
+      </c>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="6">
-        <v>0.68401734999999997</v>
-      </c>
-      <c r="H77" s="6">
-        <v>1.3013013</v>
-      </c>
-      <c r="I77" s="6">
-        <v>4.5465283507600001</v>
-      </c>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6">
+      <c r="A77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="4">
+        <v>4</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="5">
+        <v>5.0050049999999999E-2</v>
+      </c>
+      <c r="H77" s="5">
+        <v>0.49215882500000002</v>
+      </c>
+      <c r="I77" s="5">
+        <v>5.4561039036851797</v>
+      </c>
+      <c r="J77" s="5">
+        <f>AVERAGE(I77:I80)</f>
+        <v>6.2172669452866369</v>
+      </c>
+      <c r="K77" s="5">
         <f t="shared" si="2"/>
-        <v>1.62000000162</v>
-      </c>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6">
-        <v>0.30828894099999998</v>
-      </c>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+        <v>2.2618867947147168</v>
+      </c>
+      <c r="L77" s="5">
+        <f>AVERAGE(K77:K80)</f>
+        <v>2.1222965968178196</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0.44461180500000003</v>
+      </c>
+      <c r="N77" s="5">
+        <f>AVERAGE(M77:M80)</f>
+        <v>0.44326260750000002</v>
+      </c>
+      <c r="O77" s="5">
+        <f>_xlfn.STDEV.S(M77:M80)</f>
+        <v>1.6383392845457961E-2</v>
+      </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="6">
-        <v>1.309642975</v>
-      </c>
-      <c r="H78" s="6">
-        <v>1.876876875</v>
-      </c>
-      <c r="I78" s="6">
-        <v>4.2697259554782496</v>
-      </c>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="5">
+        <v>0.49215882500000002</v>
+      </c>
+      <c r="H78" s="5">
+        <v>0.93426759999999998</v>
+      </c>
+      <c r="I78" s="5">
+        <v>6.4994202496296296</v>
+      </c>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5">
         <f t="shared" si="2"/>
-        <v>1.7629411782335296</v>
-      </c>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6">
-        <v>0.128047891</v>
-      </c>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
+        <v>2.2618867947147172</v>
+      </c>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5">
+        <v>0.42300715900000002</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A79" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E79" s="4">
-        <v>4</v>
-      </c>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="5">
-        <v>5.0050049999999999E-2</v>
+        <v>0.92592592499999904</v>
       </c>
       <c r="H79" s="5">
-        <v>0.49215882500000002</v>
+        <v>1.41808475</v>
       </c>
       <c r="I79" s="5">
-        <v>5.4561039036851797</v>
-      </c>
-      <c r="J79" s="5">
-        <f>AVERAGE(I79:I82)</f>
-        <v>6.2172669452866369</v>
-      </c>
+        <v>6.7822428457999999</v>
+      </c>
+      <c r="J79" s="5"/>
       <c r="K79" s="5">
         <f t="shared" si="2"/>
-        <v>2.2618867947147168</v>
-      </c>
-      <c r="L79" s="5">
-        <f>AVERAGE(K79:K82)</f>
-        <v>2.1222965968178196</v>
-      </c>
+        <v>2.0318644088115216</v>
+      </c>
+      <c r="L79" s="5"/>
       <c r="M79" s="5">
-        <v>0.44461180500000003</v>
-      </c>
-      <c r="N79" s="5">
-        <f>AVERAGE(M79:M82)</f>
-        <v>0.44326260750000002</v>
-      </c>
-      <c r="O79" s="5">
-        <f>_xlfn.STDEV.S(M79:M82)</f>
-        <v>1.6383392845457961E-2</v>
-      </c>
+        <v>0.46306995899999998</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
@@ -3492,256 +3488,265 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="5">
-        <v>0.49215882500000002</v>
+        <v>1.4264264250000001</v>
       </c>
       <c r="H80" s="5">
-        <v>0.93426759999999998</v>
+        <v>1.9436102749999999</v>
       </c>
       <c r="I80" s="5">
-        <v>6.4994202496296296</v>
+        <v>6.1313007820317402</v>
       </c>
       <c r="J80" s="5"/>
       <c r="K80" s="5">
         <f t="shared" si="2"/>
-        <v>2.2618867947147172</v>
+        <v>1.9335483890303229</v>
       </c>
       <c r="L80" s="5"/>
       <c r="M80" s="5">
-        <v>0.42300715900000002</v>
+        <v>0.44236150699999999</v>
       </c>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="5">
-        <v>0.92592592499999904</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1.41808475</v>
-      </c>
-      <c r="I81" s="5">
-        <v>6.7822428457999999</v>
-      </c>
-      <c r="J81" s="5"/>
-      <c r="K81" s="5">
+      <c r="A81" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E81" s="7">
+        <v>3</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="H81" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="I81" s="6">
+        <v>3.2390821506249998</v>
+      </c>
+      <c r="J81" s="6">
+        <f>AVERAGE(I81:I83)</f>
+        <v>3.2692467458397334</v>
+      </c>
+      <c r="K81" s="6">
+        <f>1/(H81-G81)</f>
+        <v>1.9028571447600033</v>
+      </c>
+      <c r="L81" s="6">
+        <f>AVERAGE(K81:K83)</f>
+        <v>1.6709215388251097</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0.34942843200000001</v>
+      </c>
+      <c r="N81" s="6">
+        <f>AVERAGE(M81:M83)</f>
+        <v>0.28320177699999999</v>
+      </c>
+      <c r="O81" s="6">
+        <f>_xlfn.STDEV.S(M81:M83)</f>
+        <v>9.0629243996320732E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1.2679346</v>
+      </c>
+      <c r="I82" s="6">
+        <v>3.1833305422999998</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6">
         <f t="shared" si="2"/>
-        <v>2.0318644088115216</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5">
-        <v>0.46306995899999998</v>
-      </c>
-      <c r="N81" s="5"/>
-      <c r="O81" s="5"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="5">
-        <v>1.4264264250000001</v>
-      </c>
-      <c r="H82" s="5">
-        <v>1.9436102749999999</v>
-      </c>
-      <c r="I82" s="5">
-        <v>6.1313007820317402</v>
-      </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9335483890303229</v>
-      </c>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5">
-        <v>0.44236150699999999</v>
-      </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
+        <v>1.3469662934817961</v>
+      </c>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6">
+        <v>0.32026096900000001</v>
+      </c>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A83" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E83" s="7">
-        <v>3</v>
-      </c>
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="6">
-        <v>0</v>
+        <v>1.2679346</v>
       </c>
       <c r="H83" s="6">
-        <v>0.52552552499999905</v>
+        <v>1.8351685</v>
       </c>
       <c r="I83" s="6">
-        <v>3.2390821506249998</v>
-      </c>
-      <c r="J83" s="6">
-        <f>AVERAGE(I83:I86)</f>
-        <v>3.2692467458397334</v>
-      </c>
+        <v>3.3853275445942002</v>
+      </c>
+      <c r="J83" s="6"/>
       <c r="K83" s="6">
-        <f>1/(H83-G83)</f>
-        <v>1.9028571447600033</v>
-      </c>
-      <c r="L83" s="6">
-        <f>AVERAGE(K83:K86)</f>
-        <v>1.6709215388251097</v>
-      </c>
-      <c r="M83" s="6">
-        <v>0.34942843200000001</v>
-      </c>
-      <c r="N83" s="6">
-        <f>AVERAGE(M83:M86)</f>
-        <v>0.28095790250000002</v>
-      </c>
-      <c r="O83" s="6">
-        <f>_xlfn.STDEV.S(M83:M86)</f>
-        <v>7.4134426118932159E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="6">
-        <v>0.52552552499999905</v>
-      </c>
-      <c r="H84" s="6">
-        <v>1.2679346</v>
-      </c>
-      <c r="I84" s="6">
-        <v>3.1833305422999998</v>
-      </c>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6">
-        <f t="shared" si="2"/>
-        <v>1.3469662934817961</v>
-      </c>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6">
-        <v>0.32026096900000001</v>
-      </c>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="6">
-        <v>1.2679346</v>
-      </c>
-      <c r="H85" s="6">
-        <v>1.8351685</v>
-      </c>
-      <c r="I85" s="6">
-        <v>3.3853275445942002</v>
-      </c>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6">
         <f t="shared" si="2"/>
         <v>1.7629411782335296</v>
       </c>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6">
+      <c r="L83" s="6"/>
+      <c r="M83" s="6">
         <v>0.17991593</v>
       </c>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E84" s="4">
+        <v>5</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5">
+        <v>0.258591925</v>
+      </c>
+      <c r="H84" s="5">
+        <v>0.65065065</v>
+      </c>
+      <c r="I84" s="5">
+        <v>5.2792777668958299</v>
+      </c>
+      <c r="J84" s="5">
+        <f>AVERAGE(I84:I88)</f>
+        <v>4.683232106829915</v>
+      </c>
+      <c r="K84" s="5">
+        <f t="shared" si="2"/>
+        <v>2.5506383004229787</v>
+      </c>
+      <c r="L84" s="5">
+        <f>AVERAGE(K84:K88)</f>
+        <v>2.168986154236876</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0.25783559499999997</v>
+      </c>
+      <c r="N84" s="5">
+        <f>AVERAGE(M84:M88)</f>
+        <v>0.261625942</v>
+      </c>
+      <c r="O84" s="5">
+        <f>_xlfn.STDEV.S(M84:M88)</f>
+        <v>4.287017556527889E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5">
+        <v>0.65065065</v>
+      </c>
+      <c r="H85" s="5">
+        <v>1.0677344</v>
+      </c>
+      <c r="I85" s="5">
+        <v>4.9204931898431301</v>
+      </c>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5">
+        <f t="shared" si="2"/>
+        <v>2.3976000023976001</v>
+      </c>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5">
+        <v>0.235927362</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5"/>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6">
-        <v>0.27422627900000002</v>
-      </c>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5">
+        <v>1.0593927249999999</v>
+      </c>
+      <c r="H86" s="5">
+        <v>1.65165165</v>
+      </c>
+      <c r="I86" s="5">
+        <v>4.6415851921111102</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5">
+        <f t="shared" si="2"/>
+        <v>1.6884507059138025</v>
+      </c>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5">
+        <v>0.234536775</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A87" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" s="4">
-        <v>5</v>
-      </c>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="5">
-        <v>0.258591925</v>
+        <v>1.65165165</v>
       </c>
       <c r="H87" s="5">
-        <v>0.65065065</v>
+        <v>2.1771771750000002</v>
       </c>
       <c r="I87" s="5">
-        <v>5.2792777668958299</v>
-      </c>
-      <c r="J87" s="5">
-        <f>AVERAGE(I87:I91)</f>
-        <v>4.683232106829915</v>
-      </c>
+        <v>4.4818305843749897</v>
+      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="5">
         <f t="shared" si="2"/>
-        <v>2.5506383004229787</v>
-      </c>
-      <c r="L87" s="5">
-        <f>AVERAGE(K87:K91)</f>
-        <v>2.168986154236876</v>
-      </c>
+        <v>1.9028571447599993</v>
+      </c>
+      <c r="L87" s="5"/>
       <c r="M87" s="5">
-        <v>0.25783559499999997</v>
-      </c>
-      <c r="N87" s="5">
-        <f>AVERAGE(M87:M91)</f>
-        <v>0.261625942</v>
-      </c>
-      <c r="O87" s="5">
-        <f>_xlfn.STDEV.S(M87:M91)</f>
-        <v>4.287017556527889E-2</v>
-      </c>
+        <v>0.243319599</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
@@ -3751,159 +3756,159 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="5">
-        <v>0.65065065</v>
+        <v>2.1855188499999998</v>
       </c>
       <c r="H88" s="5">
-        <v>1.0677344</v>
+        <v>2.6192859500000001</v>
       </c>
       <c r="I88" s="5">
-        <v>4.9204931898431301</v>
+        <v>4.0929738009245202</v>
       </c>
       <c r="J88" s="5"/>
       <c r="K88" s="5">
         <f t="shared" si="2"/>
-        <v>2.3976000023976001</v>
+        <v>2.3053846176899984</v>
       </c>
       <c r="L88" s="5"/>
       <c r="M88" s="5">
-        <v>0.235927362</v>
+        <v>0.33651037900000003</v>
       </c>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="5">
-        <v>1.0593927249999999</v>
-      </c>
-      <c r="H89" s="5">
-        <v>1.65165165</v>
-      </c>
-      <c r="I89" s="5">
-        <v>4.6415851921111102</v>
-      </c>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5">
-        <f t="shared" si="2"/>
-        <v>1.6884507059138025</v>
-      </c>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5">
-        <v>0.234536775</v>
-      </c>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
+      <c r="A89" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="7">
+        <v>6</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="6">
+        <v>0.20020019999999999</v>
+      </c>
+      <c r="H89" s="6">
+        <v>0.54220887500000003</v>
+      </c>
+      <c r="I89" s="6">
+        <v>4.3256631025952297</v>
+      </c>
+      <c r="J89" s="6">
+        <f>AVERAGE(I89:I94)</f>
+        <v>4.6651067950285929</v>
+      </c>
+      <c r="K89" s="6">
+        <f t="shared" ref="K89:K97" si="3">1/(H89-G89)</f>
+        <v>2.9239024419482922</v>
+      </c>
+      <c r="L89" s="6">
+        <f>AVERAGE(K89:K94)</f>
+        <v>2.6559970950556195</v>
+      </c>
+      <c r="M89" s="6">
+        <v>0.52045217099999996</v>
+      </c>
+      <c r="N89" s="6">
+        <f>AVERAGE(M89:M94)</f>
+        <v>0.44286859433333331</v>
+      </c>
+      <c r="O89" s="6">
+        <f>_xlfn.STDEV.S(M89:M94)</f>
+        <v>3.9241519705023126E-2</v>
+      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="5">
-        <v>1.65165165</v>
-      </c>
-      <c r="H90" s="5">
-        <v>2.1771771750000002</v>
-      </c>
-      <c r="I90" s="5">
-        <v>4.4818305843749897</v>
-      </c>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9028571447599993</v>
-      </c>
-      <c r="L90" s="5"/>
-      <c r="M90" s="5">
-        <v>0.243319599</v>
-      </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="6">
+        <v>0.54220887500000003</v>
+      </c>
+      <c r="H90" s="6">
+        <v>0.91758424999999999</v>
+      </c>
+      <c r="I90" s="6">
+        <v>4.93499939671739</v>
+      </c>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6">
+        <f t="shared" si="3"/>
+        <v>2.6640000026640003</v>
+      </c>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6">
+        <v>0.44658629999999999</v>
+      </c>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="5">
-        <v>2.1855188499999998</v>
-      </c>
-      <c r="H91" s="5">
-        <v>2.6192859500000001</v>
-      </c>
-      <c r="I91" s="5">
-        <v>4.0929738009245202</v>
-      </c>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3053846176899984</v>
-      </c>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5">
-        <v>0.33651037900000003</v>
-      </c>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="6">
+        <v>0.91758424999999999</v>
+      </c>
+      <c r="H91" s="6">
+        <v>1.3263263249999999</v>
+      </c>
+      <c r="I91" s="6">
+        <v>5.3339908754599996</v>
+      </c>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6">
+        <f t="shared" si="3"/>
+        <v>2.446530614691429</v>
+      </c>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6">
+        <v>0.42414714399999998</v>
+      </c>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A92" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" s="7">
-        <v>6</v>
-      </c>
+      <c r="A92" s="7"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="6">
-        <v>0.20020019999999999</v>
+        <v>1.3263263249999999</v>
       </c>
       <c r="H92" s="6">
-        <v>0.54220887500000003</v>
+        <v>1.693360025</v>
       </c>
       <c r="I92" s="6">
-        <v>4.3256631025952297</v>
-      </c>
-      <c r="J92" s="6">
-        <f>AVERAGE(I92:I97)</f>
-        <v>4.6651067950285929</v>
-      </c>
+        <v>5.1344418276222203</v>
+      </c>
+      <c r="J92" s="6"/>
       <c r="K92" s="6">
-        <f t="shared" ref="K92:K100" si="3">1/(H92-G92)</f>
-        <v>2.9239024419482922</v>
-      </c>
-      <c r="L92" s="6">
-        <f>AVERAGE(K92:K97)</f>
-        <v>2.6559970950556195</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>2.7245454572699992</v>
+      </c>
+      <c r="L92" s="6"/>
       <c r="M92" s="6">
-        <v>0.52045217099999996</v>
-      </c>
-      <c r="N92" s="6">
-        <f>AVERAGE(M92:M97)</f>
-        <v>0.44286859433333331</v>
-      </c>
-      <c r="O92" s="6">
-        <f>_xlfn.STDEV.S(M92:M97)</f>
-        <v>3.9241519705023126E-2</v>
-      </c>
+        <v>0.41964732500000002</v>
+      </c>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
@@ -3913,22 +3918,22 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="6">
-        <v>0.54220887500000003</v>
+        <v>1.6766766749999999</v>
       </c>
       <c r="H93" s="6">
-        <v>0.91758424999999999</v>
+        <v>2.0020020000000001</v>
       </c>
       <c r="I93" s="6">
-        <v>4.93499939671739</v>
+        <v>4.4779663422249998</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="6">
         <f t="shared" si="3"/>
-        <v>2.6640000026640003</v>
+        <v>3.0738461569199989</v>
       </c>
       <c r="L93" s="6"/>
       <c r="M93" s="6">
-        <v>0.44658629999999999</v>
+        <v>0.42214447799999999</v>
       </c>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
@@ -3941,187 +3946,230 @@
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="6">
-        <v>0.91758424999999999</v>
+        <v>2.0103436750000001</v>
       </c>
       <c r="H94" s="6">
-        <v>1.3263263249999999</v>
+        <v>2.4858191500000002</v>
       </c>
       <c r="I94" s="6">
-        <v>5.3339908754599996</v>
+        <v>3.78357922555172</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="6">
         <f t="shared" si="3"/>
-        <v>2.446530614691429</v>
+        <v>2.1031578968399995</v>
       </c>
       <c r="L94" s="6"/>
       <c r="M94" s="6">
-        <v>0.42414714399999998</v>
+        <v>0.42423414799999998</v>
       </c>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="6">
-        <v>1.3263263249999999</v>
-      </c>
-      <c r="H95" s="6">
-        <v>1.693360025</v>
-      </c>
-      <c r="I95" s="6">
-        <v>5.1344418276222203</v>
-      </c>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6">
-        <f t="shared" si="3"/>
-        <v>2.7245454572699992</v>
-      </c>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6">
-        <v>0.41964732500000002</v>
-      </c>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="6">
-        <v>1.6766766749999999</v>
-      </c>
-      <c r="H96" s="6">
-        <v>2.0020020000000001</v>
-      </c>
-      <c r="I96" s="6">
-        <v>4.4779663422249998</v>
-      </c>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6">
-        <f t="shared" si="3"/>
-        <v>3.0738461569199989</v>
-      </c>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6">
-        <v>0.42214447799999999</v>
-      </c>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="6">
-        <v>2.0103436750000001</v>
-      </c>
-      <c r="H97" s="6">
-        <v>2.4858191500000002</v>
-      </c>
-      <c r="I97" s="6">
-        <v>3.78357922555172</v>
-      </c>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6">
-        <f t="shared" si="3"/>
-        <v>2.1031578968399995</v>
-      </c>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6">
-        <v>0.42423414799999998</v>
-      </c>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A98" s="4" t="s">
+      <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B95" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D95" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E95" s="4">
         <v>3</v>
       </c>
-      <c r="F98" s="4"/>
-      <c r="G98" s="5">
+      <c r="F95" s="4"/>
+      <c r="G95" s="5">
         <v>0.15015015000000001</v>
       </c>
-      <c r="H98" s="5">
+      <c r="H95" s="5">
         <v>0.56723389999999996</v>
       </c>
-      <c r="I98" s="5">
+      <c r="I95" s="5">
         <v>3.29768175403921</v>
       </c>
-      <c r="J98" s="5">
-        <f>AVERAGE(I98:I100)</f>
+      <c r="J95" s="5">
+        <f>AVERAGE(I95:I97)</f>
         <v>3.4782483052362534</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K95" s="5">
         <f t="shared" si="3"/>
         <v>2.3976000023976001</v>
       </c>
-      <c r="L98" s="5">
-        <f>AVERAGE(K98:K100)</f>
+      <c r="L95" s="5">
+        <f>AVERAGE(K95:K97)</f>
         <v>2.5003956546743087</v>
       </c>
-      <c r="M98" s="5">
+      <c r="M95" s="5">
         <v>0.35591482699999999</v>
       </c>
-      <c r="N98" s="5">
-        <f>AVERAGE(M98:M100)</f>
+      <c r="N95" s="5">
+        <f>AVERAGE(M95:M97)</f>
         <v>0.32936839966666664</v>
       </c>
-      <c r="O98" s="5">
-        <f>_xlfn.STDEV.S(M98:M100)</f>
+      <c r="O95" s="5">
+        <f>_xlfn.STDEV.S(M95:M97)</f>
         <v>2.6181473452240697E-2</v>
       </c>
     </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="5">
+        <v>0.56723389999999996</v>
+      </c>
+      <c r="H96" s="5">
+        <v>0.95095094999999996</v>
+      </c>
+      <c r="I96" s="5">
+        <v>3.52589024840425</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5">
+        <f t="shared" si="3"/>
+        <v>2.606086959127826</v>
+      </c>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5">
+        <v>0.32862255400000001</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="5">
+        <v>0.94260927500000002</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1.343009675</v>
+      </c>
+      <c r="I97" s="5">
+        <v>3.6111729132653001</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5">
+        <f t="shared" si="3"/>
+        <v>2.4975000024975</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5">
+        <v>0.30356781799999999</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="7">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7"/>
+      <c r="G98" s="6">
+        <v>9.1758425000000005E-2</v>
+      </c>
+      <c r="H98" s="6">
+        <v>0.40874207499999998</v>
+      </c>
+      <c r="I98" s="6">
+        <v>4.5138879327948702</v>
+      </c>
+      <c r="J98" s="6">
+        <f>AVERAGE(I98)</f>
+        <v>4.5138879327948702</v>
+      </c>
+      <c r="K98" s="6">
+        <f t="shared" ref="K98:K113" si="4">1/(H98-G98)</f>
+        <v>3.1547368452600004</v>
+      </c>
+      <c r="L98" s="6">
+        <f>AVERAGE(K98)</f>
+        <v>3.1547368452600004</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0.36172934699999998</v>
+      </c>
+      <c r="N98" s="6">
+        <f>AVERAGE(M98)</f>
+        <v>0.36172934699999998</v>
+      </c>
+      <c r="O98" s="8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="5">
-        <v>0.56723389999999996</v>
+        <v>0.125125125</v>
       </c>
       <c r="H99" s="5">
-        <v>0.95095094999999996</v>
+        <v>0.47547547499999998</v>
       </c>
       <c r="I99" s="5">
-        <v>3.52589024840425</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>4.3558273654651103</v>
+      </c>
+      <c r="J99" s="5">
+        <f>AVERAGE(I99:I101)</f>
+        <v>4.8802390551389161</v>
+      </c>
       <c r="K99" s="5">
-        <f t="shared" si="3"/>
-        <v>2.606086959127826</v>
-      </c>
-      <c r="L99" s="5"/>
+        <f t="shared" si="4"/>
+        <v>2.8542857171400002</v>
+      </c>
+      <c r="L99" s="5">
+        <f>AVERAGE(K99:K101)</f>
+        <v>2.7494265519333063</v>
+      </c>
       <c r="M99" s="5">
-        <v>0.32862255400000001</v>
-      </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
+        <v>0.346330048</v>
+      </c>
+      <c r="N99" s="5">
+        <f>AVERAGE(M99:M101)</f>
+        <v>0.34920655899999997</v>
+      </c>
+      <c r="O99" s="5">
+        <f>_xlfn.STDEV.S(M99:M101)</f>
+        <v>2.5825104603869293E-2</v>
+      </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
@@ -4131,732 +4179,689 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="5">
-        <v>0.94260927500000002</v>
+        <v>0.47547547499999998</v>
       </c>
       <c r="H100" s="5">
-        <v>1.343009675</v>
+        <v>0.83416749999999995</v>
       </c>
       <c r="I100" s="5">
-        <v>3.6111729132653001</v>
+        <v>4.9137385599090901</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5">
-        <f t="shared" si="3"/>
-        <v>2.4975000024975</v>
+        <f t="shared" si="4"/>
+        <v>2.7879069795320932</v>
       </c>
       <c r="L100" s="5"/>
       <c r="M100" s="5">
-        <v>0.30356781799999999</v>
+        <v>0.37634948899999998</v>
       </c>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A101" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E101" s="7">
-        <v>1</v>
-      </c>
-      <c r="F101" s="7"/>
-      <c r="G101" s="6">
-        <v>9.1758425000000005E-2</v>
-      </c>
-      <c r="H101" s="6">
-        <v>0.40874207499999998</v>
-      </c>
-      <c r="I101" s="6">
-        <v>4.5138879327948702</v>
-      </c>
-      <c r="J101" s="6">
-        <f>AVERAGE(I101)</f>
-        <v>4.5138879327948702</v>
-      </c>
-      <c r="K101" s="6">
-        <f t="shared" ref="K101:K116" si="4">1/(H101-G101)</f>
-        <v>3.1547368452600004</v>
-      </c>
-      <c r="L101" s="6">
-        <f>AVERAGE(K101)</f>
-        <v>3.1547368452600004</v>
-      </c>
-      <c r="M101" s="6">
-        <v>0.36172934699999998</v>
-      </c>
-      <c r="N101" s="6">
-        <f>AVERAGE(M101)</f>
-        <v>0.36172934699999998</v>
-      </c>
-      <c r="O101" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A102" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="4">
-        <v>3</v>
-      </c>
-      <c r="F102" s="4"/>
-      <c r="G102" s="5">
-        <v>0.125125125</v>
-      </c>
-      <c r="H102" s="5">
-        <v>0.47547547499999998</v>
-      </c>
-      <c r="I102" s="5">
-        <v>4.3558273654651103</v>
-      </c>
-      <c r="J102" s="5">
-        <f>AVERAGE(I102:I104)</f>
-        <v>4.8802390551389161</v>
-      </c>
-      <c r="K102" s="5">
-        <f t="shared" si="4"/>
-        <v>2.8542857171400002</v>
-      </c>
-      <c r="L102" s="5">
-        <f>AVERAGE(K102:K104)</f>
-        <v>2.7494265519333063</v>
-      </c>
-      <c r="M102" s="5">
-        <v>0.346330048</v>
-      </c>
-      <c r="N102" s="5">
-        <f>AVERAGE(M102:M104)</f>
-        <v>0.34920655899999997</v>
-      </c>
-      <c r="O102" s="5">
-        <f>_xlfn.STDEV.S(M102:M104)</f>
-        <v>2.5825104603869293E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="5">
-        <v>0.47547547499999998</v>
-      </c>
-      <c r="H103" s="5">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="5">
         <v>0.83416749999999995</v>
       </c>
-      <c r="I103" s="5">
-        <v>4.9137385599090901</v>
-      </c>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5">
-        <f t="shared" si="4"/>
-        <v>2.7879069795320932</v>
-      </c>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5">
-        <v>0.37634948899999998</v>
-      </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="5">
-        <v>0.83416749999999995</v>
-      </c>
-      <c r="H104" s="5">
+      <c r="H101" s="5">
         <v>1.21788455</v>
       </c>
-      <c r="I104" s="5">
+      <c r="I101" s="5">
         <v>5.3711512400425496</v>
       </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5">
+      <c r="J101" s="5"/>
+      <c r="K101" s="5">
         <f t="shared" si="4"/>
         <v>2.606086959127826</v>
       </c>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5">
+      <c r="L101" s="5"/>
+      <c r="M101" s="5">
         <v>0.32494013999999999</v>
       </c>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A102" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="7">
+        <v>4</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="6">
+        <v>6.6733399999999998E-2</v>
+      </c>
+      <c r="H102" s="6">
+        <v>0.55889222500000002</v>
+      </c>
+      <c r="I102" s="6">
+        <v>3.9911611411333299</v>
+      </c>
+      <c r="J102" s="6">
+        <f>AVERAGE(I102:I105)</f>
+        <v>4.4453335252063582</v>
+      </c>
+      <c r="K102" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0318644088115252</v>
+      </c>
+      <c r="L102" s="6">
+        <f>AVERAGE(K102:K105)</f>
+        <v>2.1239341489316317</v>
+      </c>
+      <c r="M102" s="6">
+        <v>0.50494041999999995</v>
+      </c>
+      <c r="N102" s="6">
+        <f>AVERAGE(M102:M105)</f>
+        <v>0.38628567749999998</v>
+      </c>
+      <c r="O102" s="6">
+        <f>_xlfn.STDEV.S(M102:M105)</f>
+        <v>8.4226932179335245E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A103" s="7"/>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="6">
+        <v>0.55055054999999997</v>
+      </c>
+      <c r="H103" s="6">
+        <v>1.026026025</v>
+      </c>
+      <c r="I103" s="6">
+        <v>4.44045490993103</v>
+      </c>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6">
+        <f t="shared" si="4"/>
+        <v>2.10315789684</v>
+      </c>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6">
+        <v>0.30615435400000002</v>
+      </c>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A104" s="7"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="6">
+        <v>1.026026025</v>
+      </c>
+      <c r="H104" s="6">
+        <v>1.4764764749999999</v>
+      </c>
+      <c r="I104" s="6">
+        <v>4.7724109466908997</v>
+      </c>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6">
+        <f t="shared" si="4"/>
+        <v>2.2200000022200004</v>
+      </c>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6">
+        <v>0.36252260800000002</v>
+      </c>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A105" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E105" s="7">
-        <v>4</v>
-      </c>
+      <c r="A105" s="7"/>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="6">
-        <v>6.6733399999999998E-2</v>
+        <v>1.4681348000000001</v>
       </c>
       <c r="H105" s="6">
-        <v>0.55889222500000002</v>
+        <v>1.9352685999999999</v>
       </c>
       <c r="I105" s="6">
-        <v>3.9911611411333299</v>
-      </c>
-      <c r="J105" s="6">
-        <f>AVERAGE(I105:I108)</f>
-        <v>4.4453335252063582</v>
-      </c>
+        <v>4.5773071030701704</v>
+      </c>
+      <c r="J105" s="6"/>
       <c r="K105" s="6">
         <f t="shared" si="4"/>
-        <v>2.0318644088115252</v>
-      </c>
-      <c r="L105" s="6">
-        <f>AVERAGE(K105:K108)</f>
-        <v>2.1239341489316317</v>
-      </c>
+        <v>2.1407142878550007</v>
+      </c>
+      <c r="L105" s="6"/>
       <c r="M105" s="6">
-        <v>0.50494041999999995</v>
-      </c>
-      <c r="N105" s="6">
-        <f>AVERAGE(M105:M108)</f>
-        <v>0.38628567749999998</v>
-      </c>
-      <c r="O105" s="6">
-        <f>_xlfn.STDEV.S(M105:M108)</f>
-        <v>8.4226932179335245E-2</v>
-      </c>
+        <v>0.37152532799999999</v>
+      </c>
+      <c r="N105" s="6"/>
+      <c r="O105" s="6"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="6">
-        <v>0.55055054999999997</v>
-      </c>
-      <c r="H106" s="6">
-        <v>1.026026025</v>
-      </c>
-      <c r="I106" s="6">
-        <v>4.44045490993103</v>
-      </c>
-      <c r="J106" s="6"/>
-      <c r="K106" s="6">
+      <c r="A106" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2</v>
+      </c>
+      <c r="F106" s="4"/>
+      <c r="G106" s="5">
+        <v>0</v>
+      </c>
+      <c r="H106" s="5">
+        <v>0.40874207499999998</v>
+      </c>
+      <c r="I106" s="5">
+        <v>3.9824825164600002</v>
+      </c>
+      <c r="J106" s="5">
+        <f>AVERAGE(I106:I107)</f>
+        <v>3.74833552508714</v>
+      </c>
+      <c r="K106" s="5">
         <f t="shared" si="4"/>
-        <v>2.10315789684</v>
-      </c>
-      <c r="L106" s="6"/>
-      <c r="M106" s="6">
-        <v>0.30615435400000002</v>
-      </c>
-      <c r="N106" s="6"/>
-      <c r="O106" s="6"/>
+        <v>2.4465306146914285</v>
+      </c>
+      <c r="L106" s="5">
+        <f>AVERAGE(K106:K107)</f>
+        <v>2.4720153085944641</v>
+      </c>
+      <c r="M106" s="5">
+        <v>0.299153752</v>
+      </c>
+      <c r="N106" s="5">
+        <f>AVERAGE(M106:M107)</f>
+        <v>0.35211282899999996</v>
+      </c>
+      <c r="O106" s="5">
+        <f>STDEV(M106:M107)</f>
+        <v>7.4895444944161518E-2</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="6">
-        <v>1.026026025</v>
-      </c>
-      <c r="H107" s="6">
-        <v>1.4764764749999999</v>
-      </c>
-      <c r="I107" s="6">
-        <v>4.7724109466908997</v>
-      </c>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="5">
+        <v>0.40874207499999998</v>
+      </c>
+      <c r="H107" s="5">
+        <v>0.80914247500000003</v>
+      </c>
+      <c r="I107" s="5">
+        <v>3.5141885337142802</v>
+      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5">
         <f t="shared" si="4"/>
-        <v>2.2200000022200004</v>
-      </c>
-      <c r="L107" s="6"/>
-      <c r="M107" s="6">
-        <v>0.36252260800000002</v>
-      </c>
-      <c r="N107" s="6"/>
-      <c r="O107" s="6"/>
+        <v>2.4975000024974996</v>
+      </c>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5">
+        <v>0.40507190599999998</v>
+      </c>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
+      <c r="A108" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E108" s="7">
+        <v>3</v>
+      </c>
       <c r="F108" s="7"/>
       <c r="G108" s="6">
-        <v>1.4681348000000001</v>
+        <v>5.0050049999999999E-2</v>
       </c>
       <c r="H108" s="6">
-        <v>1.9352685999999999</v>
+        <v>0.44210877500000001</v>
       </c>
       <c r="I108" s="6">
-        <v>4.5773071030701704</v>
-      </c>
-      <c r="J108" s="6"/>
+        <v>2.9808956424374999</v>
+      </c>
+      <c r="J108" s="6">
+        <f>AVERAGE(I108:I110)</f>
+        <v>3.4210108937667596</v>
+      </c>
       <c r="K108" s="6">
         <f t="shared" si="4"/>
-        <v>2.1407142878550007</v>
-      </c>
-      <c r="L108" s="6"/>
+        <v>2.5506383004229787</v>
+      </c>
+      <c r="L108" s="6">
+        <f>AVERAGE(K108:K110)</f>
+        <v>2.5514084206827685</v>
+      </c>
       <c r="M108" s="6">
-        <v>0.37152532799999999</v>
-      </c>
-      <c r="N108" s="6"/>
-      <c r="O108" s="6"/>
+        <v>0.49332383600000002</v>
+      </c>
+      <c r="N108" s="6">
+        <f>AVERAGE(M108:M110)</f>
+        <v>0.46845044366666672</v>
+      </c>
+      <c r="O108" s="6">
+        <f>_xlfn.STDEV.S(M108:M110)</f>
+        <v>5.7698116578358105E-2</v>
+      </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A109" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" s="4">
-        <v>2</v>
-      </c>
-      <c r="F109" s="4"/>
-      <c r="G109" s="5">
-        <v>0</v>
-      </c>
-      <c r="H109" s="5">
-        <v>0.40874207499999998</v>
-      </c>
-      <c r="I109" s="5">
-        <v>3.9824825164600002</v>
-      </c>
-      <c r="J109" s="5">
-        <f>AVERAGE(I109:I110)</f>
-        <v>3.74833552508714</v>
-      </c>
-      <c r="K109" s="5">
-        <f t="shared" si="4"/>
-        <v>2.4465306146914285</v>
-      </c>
-      <c r="L109" s="5">
-        <f>AVERAGE(K109:K110)</f>
-        <v>2.4720153085944641</v>
-      </c>
-      <c r="M109" s="5">
-        <v>0.299153752</v>
-      </c>
-      <c r="N109" s="5">
-        <f>AVERAGE(M109:M110)</f>
-        <v>0.35211282899999996</v>
-      </c>
-      <c r="O109" s="5">
-        <f>STDEV(M109:M110)</f>
-        <v>7.4895444944161518E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="5">
-        <v>0.40874207499999998</v>
-      </c>
-      <c r="H110" s="5">
-        <v>0.80914247500000003</v>
-      </c>
-      <c r="I110" s="5">
-        <v>3.5141885337142802</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5">
-        <f t="shared" si="4"/>
-        <v>2.4975000024974996</v>
-      </c>
-      <c r="L110" s="5"/>
-      <c r="M110" s="5">
-        <v>0.40507190599999998</v>
-      </c>
-      <c r="N110" s="5"/>
-      <c r="O110" s="5"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A111" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E111" s="7">
-        <v>3</v>
-      </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="6">
-        <v>5.0050049999999999E-2</v>
-      </c>
-      <c r="H111" s="6">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="6">
         <v>0.44210877500000001</v>
       </c>
-      <c r="I111" s="6">
-        <v>2.9808956424374999</v>
-      </c>
-      <c r="J111" s="6">
-        <f>AVERAGE(I111:I113)</f>
-        <v>3.4210108937667596</v>
-      </c>
-      <c r="K111" s="6">
-        <f t="shared" si="4"/>
-        <v>2.5506383004229787</v>
-      </c>
-      <c r="L111" s="6">
-        <f>AVERAGE(K111:K113)</f>
-        <v>2.5514084206827685</v>
-      </c>
-      <c r="M111" s="6">
-        <v>0.49332383600000002</v>
-      </c>
-      <c r="N111" s="6">
-        <f>AVERAGE(M111:M113)</f>
-        <v>0.46845044366666672</v>
-      </c>
-      <c r="O111" s="6">
-        <f>_xlfn.STDEV.S(M111:M113)</f>
-        <v>5.7698116578358105E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="6">
-        <v>0.44210877500000001</v>
-      </c>
-      <c r="H112" s="6">
+      <c r="H109" s="6">
         <v>0.82582582500000001</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I109" s="6">
         <v>3.34359288063829</v>
       </c>
-      <c r="J112" s="6"/>
-      <c r="K112" s="6">
+      <c r="J109" s="6"/>
+      <c r="K109" s="6">
         <f t="shared" si="4"/>
         <v>2.606086959127826</v>
       </c>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6">
+      <c r="L109" s="6"/>
+      <c r="M109" s="6">
         <v>0.509539988</v>
       </c>
-      <c r="N112" s="6"/>
-      <c r="O112" s="6"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="6">
+      <c r="N109" s="6"/>
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A110" s="7"/>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="6">
         <v>0.80914247500000003</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H110" s="6">
         <v>1.2095428749999999</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I110" s="6">
         <v>3.9385441582244902</v>
       </c>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6">
+      <c r="J110" s="6"/>
+      <c r="K110" s="6">
         <f t="shared" si="4"/>
         <v>2.4975000024975009</v>
       </c>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6">
+      <c r="L110" s="6"/>
+      <c r="M110" s="6">
         <v>0.40248750700000002</v>
       </c>
-      <c r="N113" s="6"/>
-      <c r="O113" s="6"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A114" s="4" t="s">
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B111" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="D111" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E111" s="4">
         <v>3</v>
       </c>
-      <c r="F114" s="4"/>
-      <c r="G114" s="5">
+      <c r="F111" s="4"/>
+      <c r="G111" s="5">
         <v>8.3416749999999998E-2</v>
       </c>
-      <c r="H114" s="5">
+      <c r="H111" s="5">
         <v>0.458792125</v>
       </c>
-      <c r="I114" s="5">
+      <c r="I111" s="5">
         <v>4.1388125316304301</v>
       </c>
-      <c r="J114" s="5">
-        <f>AVERAGE(I114:I116)</f>
+      <c r="J111" s="5">
+        <f>AVERAGE(I111:I113)</f>
         <v>4.2671114077400807</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K111" s="5">
         <f t="shared" si="4"/>
         <v>2.6640000026639998</v>
       </c>
-      <c r="L114" s="5">
-        <f>AVERAGE(K114:K116)</f>
+      <c r="L111" s="5">
+        <f>AVERAGE(K111:K113)</f>
         <v>2.4719717450151446</v>
       </c>
-      <c r="M114" s="5">
+      <c r="M111" s="5">
         <v>0.57861681300000001</v>
       </c>
-      <c r="N114" s="5">
-        <f>AVERAGE(M114:M116)</f>
+      <c r="N111" s="5">
+        <f>AVERAGE(M111:M113)</f>
         <v>0.51912330266666662</v>
       </c>
-      <c r="O114" s="5">
-        <f>_xlfn.STDEV.S(M114:M116)</f>
+      <c r="O111" s="5">
+        <f>_xlfn.STDEV.S(M111:M113)</f>
         <v>6.355322298873077E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="5">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="5">
         <v>0.458792125</v>
       </c>
-      <c r="H115" s="5">
+      <c r="H112" s="5">
         <v>0.86753419999999903</v>
       </c>
-      <c r="I115" s="5">
+      <c r="I112" s="5">
         <v>4.2498143794200001</v>
       </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5">
+      <c r="J112" s="5"/>
+      <c r="K112" s="5">
         <f t="shared" si="4"/>
         <v>2.4465306146914343</v>
       </c>
-      <c r="L115" s="5"/>
-      <c r="M115" s="5">
+      <c r="L112" s="5"/>
+      <c r="M112" s="5">
         <v>0.52658412499999996</v>
       </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="5">
+        <v>0.85919252499999998</v>
+      </c>
+      <c r="H113" s="5">
+        <v>1.2929596249999999</v>
+      </c>
+      <c r="I113" s="5">
+        <v>4.4127073121698102</v>
+      </c>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5">
+        <f t="shared" si="4"/>
+        <v>2.3053846176900001</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5">
+        <v>0.45216897</v>
+      </c>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A114" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="7">
+        <v>2</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="6">
+        <v>8.3416749999999998E-2</v>
+      </c>
+      <c r="H114" s="6">
+        <v>0.52552552499999905</v>
+      </c>
+      <c r="I114" s="6">
+        <v>3.5122293147222199</v>
+      </c>
+      <c r="J114" s="6">
+        <f>AVERAGE(I114:I115)</f>
+        <v>3.4863146937630702</v>
+      </c>
+      <c r="K114" s="6">
+        <f t="shared" ref="K114:K123" si="5">1/(H114-G114)</f>
+        <v>2.2618867947147216</v>
+      </c>
+      <c r="L114" s="6">
+        <f>AVERAGE(K114:K115)</f>
+        <v>2.3297433985561611</v>
+      </c>
+      <c r="M114" s="6">
+        <v>0.39132175699999999</v>
+      </c>
+      <c r="N114" s="6">
+        <f>AVERAGE(M114:M115)</f>
+        <v>0.37633819800000001</v>
+      </c>
+      <c r="O114" s="6">
+        <f>_xlfn.STDEV.S(M114:M115)</f>
+        <v>2.118995235041746E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A115" s="7"/>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="6">
+        <v>0.51718385</v>
+      </c>
+      <c r="H115" s="6">
+        <v>0.93426759999999998</v>
+      </c>
+      <c r="I115" s="6">
+        <v>3.4604000728039201</v>
+      </c>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6">
+        <f t="shared" si="5"/>
+        <v>2.3976000023976001</v>
+      </c>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6">
+        <v>0.36135463899999998</v>
+      </c>
+      <c r="N115" s="6"/>
+      <c r="O115" s="6"/>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
+      <c r="A116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E116" s="4">
+        <v>5</v>
+      </c>
       <c r="F116" s="4"/>
       <c r="G116" s="5">
-        <v>0.85919252499999998</v>
+        <v>0.25025025000000001</v>
       </c>
       <c r="H116" s="5">
-        <v>1.2929596249999999</v>
+        <v>0.65065065</v>
       </c>
       <c r="I116" s="5">
-        <v>4.4127073121698102</v>
-      </c>
-      <c r="J116" s="5"/>
+        <v>3.2168995607755102</v>
+      </c>
+      <c r="J116" s="5">
+        <f>AVERAGE(I116:I120)</f>
+        <v>3.5427366877218041</v>
+      </c>
       <c r="K116" s="5">
-        <f t="shared" si="4"/>
-        <v>2.3053846176900001</v>
-      </c>
-      <c r="L116" s="5"/>
+        <f t="shared" si="5"/>
+        <v>2.4975000024975</v>
+      </c>
+      <c r="L116" s="5">
+        <f>AVERAGE(K116:K120)</f>
+        <v>2.3636784888526137</v>
+      </c>
       <c r="M116" s="5">
-        <v>0.45216897</v>
-      </c>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5"/>
+        <v>0.48094163000000001</v>
+      </c>
+      <c r="N116" s="5">
+        <f>AVERAGE(M116:M120)</f>
+        <v>0.47705503820000006</v>
+      </c>
+      <c r="O116" s="5">
+        <f>_xlfn.STDEV.S(M116:M120)</f>
+        <v>2.4431364529875592E-2</v>
+      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A117" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E117" s="7">
-        <v>2</v>
-      </c>
-      <c r="F117" s="7"/>
-      <c r="G117" s="6">
-        <v>8.3416749999999998E-2</v>
-      </c>
-      <c r="H117" s="6">
-        <v>0.52552552499999905</v>
-      </c>
-      <c r="I117" s="6">
-        <v>3.5122293147222199</v>
-      </c>
-      <c r="J117" s="6">
-        <f>AVERAGE(I117:I118)</f>
-        <v>3.4863146937630702</v>
-      </c>
-      <c r="K117" s="6">
-        <f t="shared" ref="K117:K126" si="5">1/(H117-G117)</f>
-        <v>2.2618867947147216</v>
-      </c>
-      <c r="L117" s="6">
-        <f>AVERAGE(K117:K118)</f>
-        <v>2.3297433985561611</v>
-      </c>
-      <c r="M117" s="6">
-        <v>0.39132175699999999</v>
-      </c>
-      <c r="N117" s="6">
-        <f>AVERAGE(M117:M118)</f>
-        <v>0.37633819800000001</v>
-      </c>
-      <c r="O117" s="6">
-        <f>_xlfn.STDEV.S(M117:M118)</f>
-        <v>2.118995235041746E-2</v>
-      </c>
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="5">
+        <v>0.65065065</v>
+      </c>
+      <c r="H117" s="5">
+        <v>1.0593927249999999</v>
+      </c>
+      <c r="I117" s="5">
+        <v>3.27295579131999</v>
+      </c>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5">
+        <f t="shared" si="5"/>
+        <v>2.446530614691429</v>
+      </c>
+      <c r="L117" s="5"/>
+      <c r="M117" s="5">
+        <v>0.47558741900000001</v>
+      </c>
+      <c r="N117" s="5"/>
+      <c r="O117" s="5"/>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="6">
-        <v>0.51718385</v>
-      </c>
-      <c r="H118" s="6">
-        <v>0.93426759999999998</v>
-      </c>
-      <c r="I118" s="6">
-        <v>3.4604000728039201</v>
-      </c>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="5">
+        <v>1.0593927249999999</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1.5015015</v>
+      </c>
+      <c r="I118" s="5">
+        <v>3.7172153496111102</v>
+      </c>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5">
         <f t="shared" si="5"/>
-        <v>2.3976000023976001</v>
-      </c>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6">
-        <v>0.36135463899999998</v>
-      </c>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
+        <v>2.2618867947147163</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="M118" s="5">
+        <v>0.51585704700000001</v>
+      </c>
+      <c r="N118" s="5"/>
+      <c r="O118" s="5"/>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E119" s="4">
-        <v>5</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="5">
-        <v>0.25025025000000001</v>
+        <v>1.493159825</v>
       </c>
       <c r="H119" s="5">
-        <v>0.65065065</v>
+        <v>1.91858525</v>
       </c>
       <c r="I119" s="5">
-        <v>3.2168995607755102</v>
-      </c>
-      <c r="J119" s="5">
-        <f>AVERAGE(I119:I123)</f>
-        <v>3.5427366877218041</v>
-      </c>
+        <v>3.9296333998653799</v>
+      </c>
+      <c r="J119" s="5"/>
       <c r="K119" s="5">
         <f t="shared" si="5"/>
-        <v>2.4975000024975</v>
-      </c>
-      <c r="L119" s="5">
-        <f>AVERAGE(K119:K123)</f>
-        <v>2.3636784888526137</v>
-      </c>
+        <v>2.3505882376447058</v>
+      </c>
+      <c r="L119" s="5"/>
       <c r="M119" s="5">
-        <v>0.48094163000000001</v>
-      </c>
-      <c r="N119" s="5">
-        <f>AVERAGE(M119:M123)</f>
-        <v>0.47705503820000006</v>
-      </c>
-      <c r="O119" s="5">
-        <f>_xlfn.STDEV.S(M119:M123)</f>
-        <v>2.4431364529875592E-2</v>
-      </c>
+        <v>0.45369443399999998</v>
+      </c>
+      <c r="N119" s="5"/>
+      <c r="O119" s="5"/>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
@@ -4866,218 +4871,134 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="5">
-        <v>0.65065065</v>
+        <v>1.910243575</v>
       </c>
       <c r="H120" s="5">
-        <v>1.0593927249999999</v>
+        <v>2.3523523499999999</v>
       </c>
       <c r="I120" s="5">
-        <v>3.27295579131999</v>
+        <v>3.57697933703703</v>
       </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5">
         <f t="shared" si="5"/>
-        <v>2.446530614691429</v>
+        <v>2.2618867947147177</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5">
-        <v>0.47558741900000001</v>
+        <v>0.459194661</v>
       </c>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="5">
-        <v>1.0593927249999999</v>
-      </c>
-      <c r="H121" s="5">
-        <v>1.5015015</v>
-      </c>
-      <c r="I121" s="5">
-        <v>3.7172153496111102</v>
-      </c>
-      <c r="J121" s="5"/>
-      <c r="K121" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2618867947147163</v>
-      </c>
-      <c r="L121" s="5"/>
-      <c r="M121" s="5">
-        <v>0.51585704700000001</v>
-      </c>
-      <c r="N121" s="5"/>
-      <c r="O121" s="5"/>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="5">
-        <v>1.493159825</v>
-      </c>
-      <c r="H122" s="5">
-        <v>1.91858525</v>
-      </c>
-      <c r="I122" s="5">
-        <v>3.9296333998653799</v>
-      </c>
-      <c r="J122" s="5"/>
-      <c r="K122" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3505882376447058</v>
-      </c>
-      <c r="L122" s="5"/>
-      <c r="M122" s="5">
-        <v>0.45369443399999998</v>
-      </c>
-      <c r="N122" s="5"/>
-      <c r="O122" s="5"/>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="5">
-        <v>1.910243575</v>
-      </c>
-      <c r="H123" s="5">
-        <v>2.3523523499999999</v>
-      </c>
-      <c r="I123" s="5">
-        <v>3.57697933703703</v>
-      </c>
-      <c r="J123" s="5"/>
-      <c r="K123" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2618867947147177</v>
-      </c>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5">
-        <v>0.459194661</v>
-      </c>
-      <c r="N123" s="5"/>
-      <c r="O123" s="5"/>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A124" s="7" t="s">
+      <c r="A121" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B124" s="7" t="s">
+      <c r="B121" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C121" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D121" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E121" s="7">
         <v>3</v>
       </c>
-      <c r="F124" s="7"/>
-      <c r="G124" s="6">
+      <c r="F121" s="7"/>
+      <c r="G121" s="6">
         <v>7.5075074999999894E-2</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H121" s="6">
         <v>0.46713379999999999</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I121" s="6">
         <v>3.4765066544166601</v>
       </c>
-      <c r="J124" s="6">
-        <f>AVERAGE(I124:I126)</f>
+      <c r="J121" s="6">
+        <f>AVERAGE(I121:I123)</f>
         <v>3.8544680065911003</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K121" s="6">
         <f t="shared" si="5"/>
         <v>2.5506383004229782</v>
       </c>
-      <c r="L124" s="6">
-        <f>AVERAGE(K124:K126)</f>
+      <c r="L121" s="6">
+        <f>AVERAGE(K121:K123)</f>
         <v>2.4178743068368589</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M121" s="6">
         <v>0.47431230899999999</v>
       </c>
-      <c r="N124" s="6">
-        <f>AVERAGE(M124:M126)</f>
+      <c r="N121" s="6">
+        <f>AVERAGE(M121:M123)</f>
         <v>0.45681350166666634</v>
       </c>
-      <c r="O124" s="6">
-        <f>_xlfn.STDEV.S(M124:M126)</f>
+      <c r="O121" s="6">
+        <f>_xlfn.STDEV.S(M121:M123)</f>
         <v>3.0758246974953427E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="6">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A122" s="7"/>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="6">
         <v>0.48381714999999997</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H122" s="6">
         <v>0.9009009</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I122" s="6">
         <v>3.9410534544509801</v>
       </c>
-      <c r="J125" s="6"/>
-      <c r="K125" s="6">
+      <c r="J122" s="6"/>
+      <c r="K122" s="6">
         <f t="shared" si="5"/>
         <v>2.3976000023975996</v>
       </c>
-      <c r="L125" s="6"/>
-      <c r="M125" s="6">
+      <c r="L122" s="6"/>
+      <c r="M122" s="6">
         <v>0.42129819499999999</v>
       </c>
-      <c r="N125" s="6"/>
-      <c r="O125" s="6"/>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="6">
+      <c r="N122" s="6"/>
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A123" s="7"/>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="6">
         <v>0.88421755000000002</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H123" s="6">
         <v>1.3179846500000001</v>
       </c>
-      <c r="I126" s="6">
+      <c r="I123" s="6">
         <v>4.1458439109056604</v>
       </c>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6">
+      <c r="J123" s="6"/>
+      <c r="K123" s="6">
         <f t="shared" si="5"/>
         <v>2.3053846176899997</v>
       </c>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6">
+      <c r="L123" s="6"/>
+      <c r="M123" s="6">
         <v>0.474830000999999</v>
       </c>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
+      <c r="N123" s="6"/>
+      <c r="O123" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="O1:O126" xr:uid="{5106FFC1-B125-4FC6-9B54-EDB48F2B0DC2}"/>
+  <autoFilter ref="O1:O123" xr:uid="{5106FFC1-B125-4FC6-9B54-EDB48F2B0DC2}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5087,8 +5008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1067634F-9FDE-4EF9-8A83-27F0BA048D7D}">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5186,49 +5107,49 @@
         <v>1</v>
       </c>
       <c r="F2" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="14">
         <v>0</v>
       </c>
       <c r="H2" s="15">
-        <v>0.32492648339999997</v>
+        <v>0.31050628299999999</v>
       </c>
       <c r="I2" s="15">
-        <v>5.4416712224480301E-2</v>
+        <v>5.061577713771441E-2</v>
       </c>
       <c r="J2" s="15">
-        <v>3.2053940849557221</v>
+        <v>3.2180583948796535</v>
       </c>
       <c r="K2" s="15">
-        <v>6.2742854372390662</v>
+        <v>6.5665826077411404</v>
       </c>
       <c r="L2" s="15">
         <f>H2*J2/K2</f>
-        <v>0.16599777589878542</v>
+        <v>0.1521685495120505</v>
       </c>
       <c r="M2" s="15">
         <f>I2/H2*L2</f>
-        <v>2.7800298413557939E-2</v>
+        <v>2.4805067759196386E-2</v>
       </c>
       <c r="N2" s="15">
         <f>L2-M2</f>
-        <v>0.13819747748522748</v>
+        <v>0.12736348175285411</v>
       </c>
       <c r="O2" s="15">
         <f>L2+M2</f>
-        <v>0.19379807431234336</v>
+        <v>0.17697361727124689</v>
       </c>
       <c r="P2" s="15">
-        <v>90.699691808644261</v>
+        <v>94.824162333123994</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE(L2:L8)</f>
-        <v>0.1797222131087024</v>
+        <v>0.17774660933916883</v>
       </c>
       <c r="S2" s="2">
         <f>STDEV(L2:L8)</f>
-        <v>1.5814116090146917E-2</v>
+        <v>1.8457341517514568E-2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
@@ -5617,11 +5538,11 @@
       </c>
       <c r="R9" s="17">
         <f>AVERAGE(L9:L14)</f>
-        <v>0.13827226735018702</v>
+        <v>0.13414790790975639</v>
       </c>
       <c r="S9" s="2">
         <f>STDEV(L9:L14)</f>
-        <v>1.6461546918357318E-2</v>
+        <v>1.1655765413812372E-2</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
@@ -5861,41 +5782,41 @@
         <v>1</v>
       </c>
       <c r="F14" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
       </c>
       <c r="H14" s="22">
-        <v>0.48738170033333333</v>
+        <v>0.43950148750000001</v>
       </c>
       <c r="I14" s="22">
-        <v>0.10728633716783728</v>
+        <v>9.6258130046193449E-2</v>
       </c>
       <c r="J14" s="22">
-        <v>2.5444615410059974</v>
+        <v>2.6640000026639963</v>
       </c>
       <c r="K14" s="22">
-        <v>7.6440288444064803</v>
+        <v>8.5158732589021753</v>
       </c>
       <c r="L14" s="22">
         <f t="shared" si="0"/>
-        <v>0.16223434232534817</v>
+        <v>0.13748818568276441</v>
       </c>
       <c r="M14" s="22">
         <f t="shared" si="1"/>
-        <v>3.5712314063116306E-2</v>
+        <v>3.0112197645899275E-2</v>
       </c>
       <c r="N14" s="22">
         <f t="shared" si="2"/>
-        <v>0.12652202826223186</v>
+        <v>0.10737598803686514</v>
       </c>
       <c r="O14" s="22">
         <f t="shared" si="3"/>
-        <v>0.19794665638846448</v>
+        <v>0.1676003833286637</v>
       </c>
       <c r="P14" s="22">
-        <v>95.851052381654583</v>
+        <v>102.66332899303195</v>
       </c>
       <c r="S14" s="2"/>
     </row>
@@ -6236,11 +6157,11 @@
       </c>
       <c r="R20" s="17">
         <f>AVERAGE(L20:L25)</f>
-        <v>0.14625507273725896</v>
+        <v>0.14644621453657616</v>
       </c>
       <c r="S20" s="2">
         <f>STDEV(L20:L25)</f>
-        <v>2.3097090099922449E-2</v>
+        <v>2.3075442803069685E-2</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
@@ -6431,10 +6352,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0.28095790250000002</v>
+        <v>0.28320177699999999</v>
       </c>
       <c r="I24" s="15">
-        <v>7.4134426118932159E-2</v>
+        <v>9.0629243996320732E-2</v>
       </c>
       <c r="J24" s="15">
         <v>1.6709215388251097</v>
@@ -6444,19 +6365,19 @@
       </c>
       <c r="L24" s="15">
         <f t="shared" si="0"/>
-        <v>0.14359840271701205</v>
+        <v>0.14474525351291528</v>
       </c>
       <c r="M24" s="15">
         <f t="shared" si="1"/>
-        <v>3.789032122711336E-2</v>
+        <v>4.6320870712373043E-2</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="2"/>
-        <v>0.10570808148989869</v>
+        <v>9.8424382800542248E-2</v>
       </c>
       <c r="O24" s="15">
         <f t="shared" si="3"/>
-        <v>0.18148872394412541</v>
+        <v>0.19106612422528832</v>
       </c>
       <c r="P24" s="15">
         <v>94.408356861185666</v>
